--- a/data/hotels_by_city/Dallas/Dallas_shard_694.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_694.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="334">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,902 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r577334654-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>9778909</t>
+  </si>
+  <si>
+    <t>577334654</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>Nice hotel with a great location. We had meetings during my stay at their conference/meeting room. Close to alot of tasty restaurants (Shady Oaks BBQ) and a golf course. Will probably meet at this place again next year.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r570851386-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>570851386</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>Vacation/Wedding</t>
+  </si>
+  <si>
+    <t>Our whole family stayed at this hotel for my nieces wedding. The hotel was very nice and good breakfast. The hotel is right off the highway and near many places to visit. Staff were very nice and always greeted when entering hotel.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r561500445-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>561500445</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>Love the Fire Pit and Swings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is new and modern.  The outdoor seating area has a fire pit and swings.  Inside there’s a giant jenga game by a small bar.  There are a couple of arcade games.  This hotel gets and A++ for its common areas.The rooms are spacious and clean.  The hot breakfast was good.  The only negative is that the rooms are a little dark, even with all of the lights on.  Would definitely stay here again. </t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r555220099-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>555220099</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Graduation weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had a graduation to attend just passed Friday in Hurst. So we decided to stay in Fort Worth and found a nice place here in Fossil Creek. We are very familiar with Irving and Dallas but not this new area. I am very glad we stayed out here. The rooms are very nice size and I feel like the breakfast was generous! They have a bar the opens in the evening, a pool table, a jukebox, and a lovely outdoor patio area with a fire pit. The staff that we have met I've been very professional. The cleaning staff was phenomenal! </t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r554949589-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>554949589</t>
+  </si>
+  <si>
+    <t>01/20/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stockshow </t>
+  </si>
+  <si>
+    <t>Stayed one night during the Ft. worth stockshow. Very impressed with the facility. Not the easiest to get to, but good restaurants nearby. Staff was very friendly during check-in and out. Room was modern, very clean and very spacious!!  Will stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r553785533-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>553785533</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>OUTSTANDING!</t>
+  </si>
+  <si>
+    <t>This hotel has the most fantastic amenities for an incredible price indoor pool, spa, pool table, bar, patio with fire place, and miniature golf, our son loves playing jinga, and arcade, while enjoy a drink and play pool!!! It's a win win. The very best part is the staff! We met Marienella I hope I said that right one of the managers and she truly is top notch and the little woman who keeps up the breakfast is such a sweetheart. We only live 2 hours away but have came here 10 or more times just to relax and get away!!! It really is our favorite hotel and we travel a lot! Thanks so much for keeping the prices affordable for such an amazing place!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel has the most fantastic amenities for an incredible price indoor pool, spa, pool table, bar, patio with fire place, and miniature golf, our son loves playing jinga, and arcade, while enjoy a drink and play pool!!! It's a win win. The very best part is the staff! We met Marienella I hope I said that right one of the managers and she truly is top notch and the little woman who keeps up the breakfast is such a sweetheart. We only live 2 hours away but have came here 10 or more times just to relax and get away!!! It really is our favorite hotel and we travel a lot! Thanks so much for keeping the prices affordable for such an amazing place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r549327100-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>549327100</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t>Rare hospitality reserved for home</t>
+  </si>
+  <si>
+    <t>The location was discreet but near many eating places and anywhere you wanted to be in Fortworth! 
+The hotel itself is well pointed! The fresh smell of cedar whether it be real are artificial is a welcoming fragrance in an accommodation that might be otherwise overcome by other odors in a large city.
+The decorations drew in the eyes and appealed to both old and young! 
+A cocktail bar flanked the sides to a nice recreational table and jukebox! Nice touch!
+The pool was a good size for a nice evening or early morning dip at 6 am. 
+The hot tub was more like a crater able to accommodate many heavy laden bodies at once!
+Our room was awesome! We are a family of four and it can easily lodge 6, with the two queen beds and sofa sleeper. 
+I love the space, natural-color palettes, play with lighting, space, and amenities!
+The bathroom light and bright! The only drawback is because the door is glazed glass anyone sleeping on the other side might be awakened by the glow. Also, be careful with the sliding door it can catch your finger or hand and is quite jarring. 
+The breakfast was good, except they really should change the brand of waffle mix it sits on your tongue like a sponge and in your stomach, it feels even worse! 
+The staff from the front desk to the housekeeping was outstanding! 
+My family will...The location was discreet but near many eating places and anywhere you wanted to be in Fortworth! The hotel itself is well pointed! The fresh smell of cedar whether it be real are artificial is a welcoming fragrance in an accommodation that might be otherwise overcome by other odors in a large city.The decorations drew in the eyes and appealed to both old and young! A cocktail bar flanked the sides to a nice recreational table and jukebox! Nice touch!The pool was a good size for a nice evening or early morning dip at 6 am. The hot tub was more like a crater able to accommodate many heavy laden bodies at once!Our room was awesome! We are a family of four and it can easily lodge 6, with the two queen beds and sofa sleeper. I love the space, natural-color palettes, play with lighting, space, and amenities!The bathroom light and bright! The only drawback is because the door is glazed glass anyone sleeping on the other side might be awakened by the glow. Also, be careful with the sliding door it can catch your finger or hand and is quite jarring. The breakfast was good, except they really should change the brand of waffle mix it sits on your tongue like a sponge and in your stomach, it feels even worse! The staff from the front desk to the housekeeping was outstanding! My family will definitely stay here again without apprehension!Kudos to Tammy Vallejos, LLuvia Camargo and the staff who worked on 22-23 Dec between the hours of 4pm-10 am. Thank You!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>The location was discreet but near many eating places and anywhere you wanted to be in Fortworth! 
+The hotel itself is well pointed! The fresh smell of cedar whether it be real are artificial is a welcoming fragrance in an accommodation that might be otherwise overcome by other odors in a large city.
+The decorations drew in the eyes and appealed to both old and young! 
+A cocktail bar flanked the sides to a nice recreational table and jukebox! Nice touch!
+The pool was a good size for a nice evening or early morning dip at 6 am. 
+The hot tub was more like a crater able to accommodate many heavy laden bodies at once!
+Our room was awesome! We are a family of four and it can easily lodge 6, with the two queen beds and sofa sleeper. 
+I love the space, natural-color palettes, play with lighting, space, and amenities!
+The bathroom light and bright! The only drawback is because the door is glazed glass anyone sleeping on the other side might be awakened by the glow. Also, be careful with the sliding door it can catch your finger or hand and is quite jarring. 
+The breakfast was good, except they really should change the brand of waffle mix it sits on your tongue like a sponge and in your stomach, it feels even worse! 
+The staff from the front desk to the housekeeping was outstanding! 
+My family will...The location was discreet but near many eating places and anywhere you wanted to be in Fortworth! The hotel itself is well pointed! The fresh smell of cedar whether it be real are artificial is a welcoming fragrance in an accommodation that might be otherwise overcome by other odors in a large city.The decorations drew in the eyes and appealed to both old and young! A cocktail bar flanked the sides to a nice recreational table and jukebox! Nice touch!The pool was a good size for a nice evening or early morning dip at 6 am. The hot tub was more like a crater able to accommodate many heavy laden bodies at once!Our room was awesome! We are a family of four and it can easily lodge 6, with the two queen beds and sofa sleeper. I love the space, natural-color palettes, play with lighting, space, and amenities!The bathroom light and bright! The only drawback is because the door is glazed glass anyone sleeping on the other side might be awakened by the glow. Also, be careful with the sliding door it can catch your finger or hand and is quite jarring. The breakfast was good, except they really should change the brand of waffle mix it sits on your tongue like a sponge and in your stomach, it feels even worse! The staff from the front desk to the housekeeping was outstanding! My family will definitely stay here again without apprehension!Kudos to Tammy Vallejos, LLuvia Camargo and the staff who worked on 22-23 Dec between the hours of 4pm-10 am. Thank You!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r548486430-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>548486430</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Springhill</t>
+  </si>
+  <si>
+    <t>Always enjoy my stay at this hotel,I travel a lot and this has to be the best place I have ever stayed.Its not a full service hotel but they have great amenities and the staff here makes you feel very welcome thanks to brichell and her front desk personnel for greeting me morning and evening with a smile also the bar tender christan is awesome.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r544328549-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>544328549</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butler Family’s Thanksgiving </t>
+  </si>
+  <si>
+    <t>The hotel was beautiful and the staff was awesome.  We were completely satisfied with guests services.  A special thanks to LLuvia Camacho, Keesa, Brechell, Geneva and Acosta for making our stay very pleasant and for going the extra mile to ensure we were satisfied and for making sure all of our needs were met.  Highly recommended.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r541482608-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>541482608</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>Brechelle is awesome!</t>
+  </si>
+  <si>
+    <t>I️ have been coming here every week for the last 8 weeks and every stay is exceptional. Brechelle really goes out of her way to take care of all my needs. She is the reason I️ keep coming back! You rock, Brechelle!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r541423504-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>541423504</t>
+  </si>
+  <si>
+    <t>Incredible staff</t>
+  </si>
+  <si>
+    <t>I stay with Marriot every week for work and I always get good service but after the amazing service I received in Fossil Creek I decided for the first time to write a review.  The Hotel is a beautiful property but Brechelle was absolutely amazing with taking care of a couple concerns of mine.  Its been a long time since I've had someone go above and beyond in their customer service with an amazing attitude.  The girl that runs the bar (Christian) was also the sweetest person I've ever met.  I highly recommend this property it deserves more than 5 stars.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r541187938-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>541187938</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>Like being at home!</t>
+  </si>
+  <si>
+    <t>I am relocating to the Dallas / Ft. Worth area and I have been staying at this location for several months - typically four nights a week.  The staff is exceptional; they great me by my name every stay, look out for my every little need and make me feel especially valued as a customer.  The rooms are fantastic, the price is right and the location is excellent.......why would I go anywhere else!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r537375255-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>537375255</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>Production Manager</t>
+  </si>
+  <si>
+    <t>In 30 years of business travel I have never seen a staff more attentive and eager to make their guests stay an absolute pleasure. Everyone is always friendly and smiling and makes you feel genuinely welcome. I travel to Ft Worth 4 times per year and will definitely make this my Ft Worth home away from home.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r535788294-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>535788294</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Very nice value for the money</t>
+  </si>
+  <si>
+    <t>Room was very clean. Well-kept property. Friendly, customer-oriented staff. Had only been in the room a few minutes when a call came in from the front desk asking if the room met our expectations. We will definitely stay here again!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r535231614-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>535231614</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>We went down for a wedding and stayed here 4 days. The entire staff from front desk to housekeeping were so friendly. The room was clean and one of the largest rooms we’ve ever stayed in. The breakfast was plentiful and changed from the weekend menu to a weekday menu. Must say I liked the weekday menu better because it was even more varied. There was cookies one night and cupcakes the next night for an evening snack. When we go back we will make it a point to stay here again!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r508026972-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>508026972</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel unfortunately located too close to a noisy freeway</t>
+  </si>
+  <si>
+    <t>The property is new and well kept. Very clean.  Nice upscale amenities and outdoor recreational space. Staff was very nice and accommodating.  Relatively convenient to nearby dining.  Unfortunately the way it is positioned on their parcel of land the freeway noise is unavoidable, and I would not stay there again because of it. I had to use earplugs due to the road noise, and I had a low floor room facing another hotel , which was as good as it could get.  I can usually mitigate the road noise with the AC, but their AC is ducted and not a typical hotel AC, so there was little to no noise when the AC was in use.My comment to the developer- why put such a nice building with balconies etc RIGHT ON A MAJOR FREEWAY?  At least orient the building so one side is not exposed to the freeway.  Or as an alternative install better glass or even noise dampening curtains/window coverings.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Tammy V, General Manager at SpringHill Suites Fort Worth Fossil Creek, responded to this reviewResponded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>The property is new and well kept. Very clean.  Nice upscale amenities and outdoor recreational space. Staff was very nice and accommodating.  Relatively convenient to nearby dining.  Unfortunately the way it is positioned on their parcel of land the freeway noise is unavoidable, and I would not stay there again because of it. I had to use earplugs due to the road noise, and I had a low floor room facing another hotel , which was as good as it could get.  I can usually mitigate the road noise with the AC, but their AC is ducted and not a typical hotel AC, so there was little to no noise when the AC was in use.My comment to the developer- why put such a nice building with balconies etc RIGHT ON A MAJOR FREEWAY?  At least orient the building so one side is not exposed to the freeway.  Or as an alternative install better glass or even noise dampening curtains/window coverings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r503552749-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>503552749</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>New and comfortable</t>
+  </si>
+  <si>
+    <t>We had such a great stay at SpringHill Suites.  The hotel is very new and modern.  The entire hotel is clean and well cared for.  The complimentary breakfast is fantastic.  Coffee was good.  There is something for everyone at breakfast- chobani yogurts, granola, cereal, bagels, pastries, fruit, oatmeal, omelets, bacon, croissants...the list goes on and on.Staff was beyond helpful and professional. Very polite and accommodating.  Check in and check out were very quick and easy.Room was lovely.  Bed was very comfortable.  Bathroom was clean and spacious with a very modern shower. It exceeded my expectations.  Hotel was quiet, easy to sleep.Gym and pool are clean and well cared for.  Hot tub was HOT and a nice relaxing experience.  I highly recommend staying here.  We were sad to check out.  My only suggestion to management would be to add another washing machine and dryer to the laundry room.  There was quite a line waiting to use the machines, we were awake until past midnight before ours finished, and there was a gentleman after us.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>We had such a great stay at SpringHill Suites.  The hotel is very new and modern.  The entire hotel is clean and well cared for.  The complimentary breakfast is fantastic.  Coffee was good.  There is something for everyone at breakfast- chobani yogurts, granola, cereal, bagels, pastries, fruit, oatmeal, omelets, bacon, croissants...the list goes on and on.Staff was beyond helpful and professional. Very polite and accommodating.  Check in and check out were very quick and easy.Room was lovely.  Bed was very comfortable.  Bathroom was clean and spacious with a very modern shower. It exceeded my expectations.  Hotel was quiet, easy to sleep.Gym and pool are clean and well cared for.  Hot tub was HOT and a nice relaxing experience.  I highly recommend staying here.  We were sad to check out.  My only suggestion to management would be to add another washing machine and dryer to the laundry room.  There was quite a line waiting to use the machines, we were awake until past midnight before ours finished, and there was a gentleman after us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r502256673-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>502256673</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>The staff makes the difference...</t>
+  </si>
+  <si>
+    <t>It's a relatively new hotel, so the accommodations were everything I could ask for and more.  It was the employee's professionalism that will make sure I get back to visit again.  Everyone was super helpful and understanding when I arrived to check in and there was a line of about ten people waiting.  While all their stations were full (getting people through quickly), someone made sure to hand out cold bottled water to anyone coming in from the super hot day.  Thank you for all that and more!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r486090962-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>486090962</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>Great place to stop along the way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here as a family on our way to the coast. Loved the place! The rooms were big and spacious and there was room for all the kids. The lobby and patio areas are the shinning light to this hotel. The ability to go out and sit while the kids play on the putting green was great. The lobby area had games to play as well. What a relaxing and welcoming place. Would stay here again. The breakfast we good as well. It seems the hotel was very well ran. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r484796761-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>484796761</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Sleek, Stylish and still comfy</t>
+  </si>
+  <si>
+    <t>I was in town for a wedding with my Mother and Sister for a long weekend and we had the joy of staying at this hotel.  While we had terrible trouble getting around the area with all the construction, the hotel was the redeeming aspect of our travels.  The staff was friendly, polite, and helpful.  The complimentary breakfast was so good.  The room was everything we needed and then some. I had to do some work while there and found it easy to work from the mid-room desk and close the glass to shut off my sister and mother watching TV on the other side.  The back and front patios were so pleasant to utilize for happy hour and for breakfast I enjoyed our visit and if I ever find myself in that terrible area again, I would love to stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in town for a wedding with my Mother and Sister for a long weekend and we had the joy of staying at this hotel.  While we had terrible trouble getting around the area with all the construction, the hotel was the redeeming aspect of our travels.  The staff was friendly, polite, and helpful.  The complimentary breakfast was so good.  The room was everything we needed and then some. I had to do some work while there and found it easy to work from the mid-room desk and close the glass to shut off my sister and mother watching TV on the other side.  The back and front patios were so pleasant to utilize for happy hour and for breakfast I enjoyed our visit and if I ever find myself in that terrible area again, I would love to stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r484785494-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>484785494</t>
+  </si>
+  <si>
+    <t>Great shower, comfy beds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This new hotel is very nice.  The shower is amazing!!!  The beds are comfy, and you don't hear highway noise.  The fitness room has a decent amount of equipment, and the outdoor area is very nice as well.  The only drawback while we were there was the highway construction- once we found an alternative route to the TCU area, life improved.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r472703089-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>472703089</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>Traveled here for work. Always like the Springhill brands because you always get a suite. Friendly staff, smooth checkin. Room was immaculate. Food was fair-what I expect from a Springhill. Will stay again</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r471184486-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>471184486</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Very nice clean modern hotel.  If you are lucky Tammy will be there, she is very helpful and friendly.</t>
+  </si>
+  <si>
+    <t>Room was extremely modern, nice and clean. Next time I have business there I am definitely staying there. Such a friendly, courteous atmosphere I am even considering going there on my time off. I am a very light sleeper and the room I was in I could not hear anyone above or beside me. The air conditioning was so amazingly quiet I did not know when it was running.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r470324590-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>470324590</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>March Vacation Visit</t>
+  </si>
+  <si>
+    <t>This is a GREAT hotel.  Only about a year old so everything is new.  The location is really good as right next to the highway for eas yaccess.  Airport aout 20 minutes, Stockyards about 15 minutes.  The breakfast is large, and the ladies do a GREAT job at keeping it full and tasty.  They have a night bar open for drinks and an open lounge. Our favorite part was that there were two outdoor lounges to sit at and work with plenty of seating (20 out front, 40+ out back).  Sat out there for hours late afternoon into evening working on the computers and just talking.  The rooms are typical but they have more upgrades in style.  The front desk personnel were really fun and helpful with directions to local eating places and always asking us when we returned about our adventure and what we bought.  Kelli and Lluvia were especially nice to us. Have visited FTW about 2 dozen times but now like this hotel the best for location, quality, personnel, ammenities and price.  Will make this out new stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a GREAT hotel.  Only about a year old so everything is new.  The location is really good as right next to the highway for eas yaccess.  Airport aout 20 minutes, Stockyards about 15 minutes.  The breakfast is large, and the ladies do a GREAT job at keeping it full and tasty.  They have a night bar open for drinks and an open lounge. Our favorite part was that there were two outdoor lounges to sit at and work with plenty of seating (20 out front, 40+ out back).  Sat out there for hours late afternoon into evening working on the computers and just talking.  The rooms are typical but they have more upgrades in style.  The front desk personnel were really fun and helpful with directions to local eating places and always asking us when we returned about our adventure and what we bought.  Kelli and Lluvia were especially nice to us. Have visited FTW about 2 dozen times but now like this hotel the best for location, quality, personnel, ammenities and price.  Will make this out new stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r464182226-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>464182226</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice clean hotel </t>
+  </si>
+  <si>
+    <t>Nice and courtesy people that worked  there this was our second stay very clean . Only thing that I would suggest is expand breakfast ☺️we really like the area , even being right next to the freeway we did not have any noise pollution which is great for sleeping. I would suggest sturdy pillows also but the stay was good .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r458745670-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>458745670</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>New, comfortable &amp; a brilliant staff</t>
+  </si>
+  <si>
+    <t>Booked this hotel on a colleague's recommendation and it was worth a recommendation. It's at a very good location in Fort Worth and the staffs and services were excellent. The rooms were nice and spacious. Breakfast was OK.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r456258851-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>456258851</t>
+  </si>
+  <si>
+    <t>01/31/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Booked this hotel while we were in town for a gymnastics meet.  I will definitely book and stay again.  Hotel is very clean.  Staff was very friendly and helpful.  Our room was spacious.  Breakfast was good.  The pool and workout facility were nice.  We have no complaints about this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r451784086-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>451784086</t>
+  </si>
+  <si>
+    <t>01/13/2017</t>
+  </si>
+  <si>
+    <t>Awesome hotel with even better staff</t>
+  </si>
+  <si>
+    <t>My family stayed here one night driving home from Houston to Kansas City. Great idea to stay here to say the least. We were tired and didn't want to go out and get dinner. The wonderful, friendly staff at the front desk and bar made dinner for us-quesadillas, a sandwich, and a made to order pizza for my picky daughter. They were all delicious!! Exactly what we needed after a long day. Could not be more grateful.The room was clean and beautiful-very spacious. We really enjoyed the pool and hot tub as well. Very clean. Highly recommend this hotel!!! Thank you all again!!</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r451487234-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>451487234</t>
+  </si>
+  <si>
+    <t>01/12/2017</t>
+  </si>
+  <si>
+    <t>What a hotel</t>
+  </si>
+  <si>
+    <t>What a hotel! I stayed at some expensive hotels but this one is as good as those high end hotels. Just to heck of it, you should just walk-in and check the brand spanking new, contemporary lobby and the rooms to see where hotel industry is going forward. Room, service and breakfast were also exceptional.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r446931252-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>446931252</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a pretty new property that is very modern and has great suites. Our room had a comfortable king bed with terrific pillows, a great bathroom, Plenty of storage, large flatscreen tv and comfortable living room area.  The outside space had a great large fire pit and we spent a couple hours outside just enjoying the property. This is a perfect place to stay. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r437206394-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>437206394</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Too modern</t>
+  </si>
+  <si>
+    <t>It was updated well, but too modern for my taste.  I prefer a room with a cozy feel.  It felt very cold, no warmth.  The TV was in a very odd placement.  The dining room &amp; patio however, were awesome &amp; relaxing.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r436151867-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>436151867</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Bad policies ruined our stay</t>
+  </si>
+  <si>
+    <t>We had a reservation and stayed at this hotel last week. My daughter and son-in-law reserved the two bedroom suite/apartment so that we, along with my son-in-law's parents could all be together for a vacation. We grandparents each reserved suites, as well. At basically the last minute, the hotel decided they could make more money off of a corporate client who decided they wanted the room that my daughter had already booked and so they gave it to them instead. What a dirty way to treat your customers. Sorry we wouldn't have made you the same money that your corporate clients would, but a reservation is a reservation and to cancel it in such a way is a terrible way to treat your guests. 
+The attitudes from management were unhelpful and dismissive. While my daughter's family's consolation room was discounted, it gave us nowhere to gather together and completely fouled up our plans that we had carefully made well in advance with a confirmed reservation. The cursory note from management on my daughter's review below does nothing to make up for what should have been a carefree family gathering. 
+We in no way felt this was an isolated incident and felt very sure that any chance given to make more money from a preferred client would be jumped at with no remorse. Shameful way to do business. We will not return and will be sure to tell our friends and...We had a reservation and stayed at this hotel last week. My daughter and son-in-law reserved the two bedroom suite/apartment so that we, along with my son-in-law's parents could all be together for a vacation. We grandparents each reserved suites, as well. At basically the last minute, the hotel decided they could make more money off of a corporate client who decided they wanted the room that my daughter had already booked and so they gave it to them instead. What a dirty way to treat your customers. Sorry we wouldn't have made you the same money that your corporate clients would, but a reservation is a reservation and to cancel it in such a way is a terrible way to treat your guests. The attitudes from management were unhelpful and dismissive. While my daughter's family's consolation room was discounted, it gave us nowhere to gather together and completely fouled up our plans that we had carefully made well in advance with a confirmed reservation. The cursory note from management on my daughter's review below does nothing to make up for what should have been a carefree family gathering. We in no way felt this was an isolated incident and felt very sure that any chance given to make more money from a preferred client would be jumped at with no remorse. Shameful way to do business. We will not return and will be sure to tell our friends and family who visit to stay away from this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Tammy V, General Manager at SpringHill Suites Fort Worth Fossil Creek, responded to this reviewResponded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>We had a reservation and stayed at this hotel last week. My daughter and son-in-law reserved the two bedroom suite/apartment so that we, along with my son-in-law's parents could all be together for a vacation. We grandparents each reserved suites, as well. At basically the last minute, the hotel decided they could make more money off of a corporate client who decided they wanted the room that my daughter had already booked and so they gave it to them instead. What a dirty way to treat your customers. Sorry we wouldn't have made you the same money that your corporate clients would, but a reservation is a reservation and to cancel it in such a way is a terrible way to treat your guests. 
+The attitudes from management were unhelpful and dismissive. While my daughter's family's consolation room was discounted, it gave us nowhere to gather together and completely fouled up our plans that we had carefully made well in advance with a confirmed reservation. The cursory note from management on my daughter's review below does nothing to make up for what should have been a carefree family gathering. 
+We in no way felt this was an isolated incident and felt very sure that any chance given to make more money from a preferred client would be jumped at with no remorse. Shameful way to do business. We will not return and will be sure to tell our friends and...We had a reservation and stayed at this hotel last week. My daughter and son-in-law reserved the two bedroom suite/apartment so that we, along with my son-in-law's parents could all be together for a vacation. We grandparents each reserved suites, as well. At basically the last minute, the hotel decided they could make more money off of a corporate client who decided they wanted the room that my daughter had already booked and so they gave it to them instead. What a dirty way to treat your customers. Sorry we wouldn't have made you the same money that your corporate clients would, but a reservation is a reservation and to cancel it in such a way is a terrible way to treat your guests. The attitudes from management were unhelpful and dismissive. While my daughter's family's consolation room was discounted, it gave us nowhere to gather together and completely fouled up our plans that we had carefully made well in advance with a confirmed reservation. The cursory note from management on my daughter's review below does nothing to make up for what should have been a carefree family gathering. We in no way felt this was an isolated incident and felt very sure that any chance given to make more money from a preferred client would be jumped at with no remorse. Shameful way to do business. We will not return and will be sure to tell our friends and family who visit to stay away from this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r435939459-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>435939459</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very friendly environment </t>
+  </si>
+  <si>
+    <t>I have stayed for business for almost 6 months now, it feels like 2nd homeThe staff and management would do any thing to make your stay enjoyable in a very professional manner I highly recommend this hotel for your next stay</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r432709027-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>432709027</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel, Great Staff</t>
+  </si>
+  <si>
+    <t>I've been staying at this hotel on business for over 6 months and this is a great place to stay if you find yourself in the Fossil Creek area of Fort Worth, TX. Opening this past March, the modern rooms and high tech conveniences make it easy for the road warrior to get the job done. To add to the amenities, the staff from the general manager, front desk team and housekeeping are personable, friendly and always willing to help. After 6 months, I have no trouble calling the SpringHill suites at Fossil Creek my home away from home. I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r430357019-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>430357019</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Great place to meet friends!</t>
+  </si>
+  <si>
+    <t>Beautiful and bright friendly atmosphere!Plenty of group seating areas both inside and out.  Staff is very friendly and helpful. Rooms are comfortable and designed with the digital generation in mind! Outlets everywhere!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r427347949-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>427347949</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very new!  Nice decor, trendy n friendly staff.  There's a bar area n an outside lounge area with relaxing sofas n chairs.  A small greens area as well.  Murals are in each room on one wall.  The suites have an expandable sofa.  Fridge n microwave.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r422062039-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>422062039</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel Stay</t>
+  </si>
+  <si>
+    <t>This is a new property so very clean. Love the large glassed in shower versus tub with shower curtain. Service was excellent and staff very friendly. Thought since close to freeway would be noisy and was wrong. Room extremely quiet to my surprise! Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r415927778-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>415927778</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>The game was lousy but the stay was great!</t>
+  </si>
+  <si>
+    <t>My wife and I took my in-laws to see USC play Alabama at the Dallas Cowboy's stadium.  Alabama dominated my USC Trojans 52-6 in the football game, which was disappointing.  What was not disappointing was our hotel.  The SpringHill Suites Fossil Creek is an exceptional place to stay.  Freeway close with no freeway sound to contend with in the rooms.  The entire facility was clean and well kept.  The front desk and hotel staff were very friendly, helpful, and informative.  Requests for extra towels were executed quickly and with a smile.  Directions to different locations were given freely and accurately.  Dinning suggestions were also spot on as to quality locations to dine.The hotel offers a buffet breakfast of eggs, bacon, toast, cereal, and drinks.  The food would do if you are in a hurry and need something quick, but not something to write home about.  All in all I would stay at this hotel again when in the Fort Worth area.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I took my in-laws to see USC play Alabama at the Dallas Cowboy's stadium.  Alabama dominated my USC Trojans 52-6 in the football game, which was disappointing.  What was not disappointing was our hotel.  The SpringHill Suites Fossil Creek is an exceptional place to stay.  Freeway close with no freeway sound to contend with in the rooms.  The entire facility was clean and well kept.  The front desk and hotel staff were very friendly, helpful, and informative.  Requests for extra towels were executed quickly and with a smile.  Directions to different locations were given freely and accurately.  Dinning suggestions were also spot on as to quality locations to dine.The hotel offers a buffet breakfast of eggs, bacon, toast, cereal, and drinks.  The food would do if you are in a hurry and need something quick, but not something to write home about.  All in all I would stay at this hotel again when in the Fort Worth area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r412277241-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>412277241</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Great find for a STAYCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hubby and I were looking to take a quick respite and decided we needed a STAYCATION. We discovered this quaint property in Ft Worth and boy was it a FIND! The hotel is pretty new in fact, rooms are excellently decorated. I am a big fan of suite hotels and this location did not disappoint. The breakfast was excellent choices - as are many SpringHill Suite locations, lots of variety, the lobby was pleasant just to hang out the parking was plentiful and most importantly the staff from the front desk to the maintenance men were top notch! We definitely will return. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r393722620-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>393722620</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Great staff,new hotel issues</t>
+  </si>
+  <si>
+    <t>We stayed here on a trip to Billy Bob's earlier in the year. The hotel was new and still not fully finished. The bar area was not complete nor open. The internet was down the entire time we stayed. Our room was clean and comfortable,but there were still some holes and unfinished tiles. We had no cell phone service in our room,due to the location of our room in the hotel. The staff was very friendly and helpful though. The grounds were clean, as was the hotel itself. The breakfast was very fresh and yummy. However there was a dance convention or something going on and there were large groups of families and kids. They were very loud and rude. We ended up taking our food to our room, after hearing them complain and treat the staff with disrespect. If we ever plan to visit Ft. Worth again we would probably stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>We stayed here on a trip to Billy Bob's earlier in the year. The hotel was new and still not fully finished. The bar area was not complete nor open. The internet was down the entire time we stayed. Our room was clean and comfortable,but there were still some holes and unfinished tiles. We had no cell phone service in our room,due to the location of our room in the hotel. The staff was very friendly and helpful though. The grounds were clean, as was the hotel itself. The breakfast was very fresh and yummy. However there was a dance convention or something going on and there were large groups of families and kids. They were very loud and rude. We ended up taking our food to our room, after hearing them complain and treat the staff with disrespect. If we ever plan to visit Ft. Worth again we would probably stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r392542201-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>392542201</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Nice Property and Staff - New Hotel Hiccups</t>
+  </si>
+  <si>
+    <t>This property is very nice and relatively new.  The staff, which seem in abundance, are all very pleasant and helpful.  However, two mornings in a row, at 8:00AM, I asked that my room be cleaned before I returned at 10:30AM.  I was assured that it would be done.  I was let down on both occasions.  Not a big deal, but also not a hard thing to do.  Also, when I ordered chips and salsa at the bar, the chips were stale.  Without requesting, the cost of the order was deleted from my bill.  Also, when I pointed out that my room wasn't cleaned as requested 2 days in a row, they offered me something out of their 'marketplace' store or from the bar (which I declined because that's not why I was telling them).Last point, I stayed here on points, and it is a great deal.  However my meetings are south of Fort Worth.  Be prepared for some horrific road/freeway construction between downtown FW and hotel...but not the hotel's fault.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Tammy V, General Manager at SpringHill Suites Fort Worth Fossil Creek, responded to this reviewResponded July 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2016</t>
+  </si>
+  <si>
+    <t>This property is very nice and relatively new.  The staff, which seem in abundance, are all very pleasant and helpful.  However, two mornings in a row, at 8:00AM, I asked that my room be cleaned before I returned at 10:30AM.  I was assured that it would be done.  I was let down on both occasions.  Not a big deal, but also not a hard thing to do.  Also, when I ordered chips and salsa at the bar, the chips were stale.  Without requesting, the cost of the order was deleted from my bill.  Also, when I pointed out that my room wasn't cleaned as requested 2 days in a row, they offered me something out of their 'marketplace' store or from the bar (which I declined because that's not why I was telling them).Last point, I stayed here on points, and it is a great deal.  However my meetings are south of Fort Worth.  Be prepared for some horrific road/freeway construction between downtown FW and hotel...but not the hotel's fault.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r392224891-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>392224891</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Wonderful hotel - Comfortable beds</t>
+  </si>
+  <si>
+    <t>This is a wonderful hotel.  The rooms were clean and the beds were very comfortable.  The staff was great.  Lots of outdoor seating areas.  Only drawback was the cold indoor pool.  If you're taking kids who want to swim, you might want to make sure they don't mind cold water.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r387993788-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>387993788</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Great new hotel. A bit far from city center, but easy on and off major freeway.</t>
+  </si>
+  <si>
+    <t>I liked this hotel. Very nice, brand new facility. Room is great, suite style, but not a separate room for the sofa, and share one TV for whole room. The bathroom door slides, so it does not completely cover the opening. A bit strange. Wall AC vent, so that is nice, although it creates a little draft on the headboard end. Overall, very nice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r383323192-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>383323192</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was excellent! Very modern! My kids absolutely loved the putt putt golf area and the pool! Also the staff made my experience a very pleasant one! I will definitely recommend this hotel to anyone!  The only thing that would have made this better is if I was able to stay more than one night! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r383239639-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>383239639</t>
+  </si>
+  <si>
+    <t>EXCELLENT Hotel - Brand New and Perfectly Decorated!</t>
+  </si>
+  <si>
+    <t>I stayed here for several nights and was blown away by the look and feel of this place! And I am in the same business - development and operating hotels! Between Marriott and the local design team - they were spot on with what people want in a hotel! And once the team tweaks a few operational concerns (which were minor!) everything will be perfect! Those who read this review can rest assured that you to should expect a great experience! Thank you and best of luck to the entire staff!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r378290761-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>378290761</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Brand new and beautiful!</t>
+  </si>
+  <si>
+    <t>I am typically a Courtyard guy, but since this was a new SpringHill I though I would give it a try. I am very glad that I did! If this is the new look for SpringHill hotels... no more Courtyards for me. Excellent room, very comfortable, great layout and plenty of room. Excellent shower as well! The gym is very nice for a hotel of this level. Top of the line elliptical machine, TRX system, weights, kettle bells, sit up balls, clean, overall very nice and well equipped. The staff was excellent, friendly, helpful and professional. The breakfast was very nice and typical of a Springhill and included cracked eggs. I would like a little better selection for a dinner meal, but the Cobb salad I had was very nice. Overall it was an excellent stay and I will definitely stay here again on my next trip to DFW.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Jeff E, General Manager at SpringHill Suites Fort Worth Fossil Creek, responded to this reviewResponded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2016</t>
+  </si>
+  <si>
+    <t>I am typically a Courtyard guy, but since this was a new SpringHill I though I would give it a try. I am very glad that I did! If this is the new look for SpringHill hotels... no more Courtyards for me. Excellent room, very comfortable, great layout and plenty of room. Excellent shower as well! The gym is very nice for a hotel of this level. Top of the line elliptical machine, TRX system, weights, kettle bells, sit up balls, clean, overall very nice and well equipped. The staff was excellent, friendly, helpful and professional. The breakfast was very nice and typical of a Springhill and included cracked eggs. I would like a little better selection for a dinner meal, but the Cobb salad I had was very nice. Overall it was an excellent stay and I will definitely stay here again on my next trip to DFW.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r375119146-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>375119146</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>NEW PROPERTY</t>
+  </si>
+  <si>
+    <t>Opened in April, 2016.  Very modern technology . . . you will love the showers!  The personnel have been highly trained and are very energetic and proud of this new property.  Extremely courteous.  So pleased with our stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jeff E, General Manager at SpringHill Suites Fort Worth Fossil Creek, responded to this reviewResponded May 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2016</t>
+  </si>
+  <si>
+    <t>Opened in April, 2016.  Very modern technology . . . you will love the showers!  The personnel have been highly trained and are very energetic and proud of this new property.  Extremely courteous.  So pleased with our stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r374295325-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>374295325</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Brand new, beautiful property</t>
+  </si>
+  <si>
+    <t>Awesome new property with a ton of high tech amenities (see: digital temperature gauge for the shower water). SpringHill Suites has definitely won me over for future stays, and I would feel lucky if I could stay at another property like this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jeff E, General Manager at SpringHill Suites Fort Worth Fossil Creek, responded to this reviewResponded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Awesome new property with a ton of high tech amenities (see: digital temperature gauge for the shower water). SpringHill Suites has definitely won me over for future stays, and I would feel lucky if I could stay at another property like this one.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1544,2870 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" t="s">
+        <v>120</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" t="s">
+        <v>125</v>
+      </c>
+      <c r="L15" t="s">
+        <v>126</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" t="s">
+        <v>127</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>138</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>139</v>
+      </c>
+      <c r="X17" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" t="s">
+        <v>146</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" t="s">
+        <v>153</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" t="s">
+        <v>158</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>159</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" t="s">
+        <v>168</v>
+      </c>
+      <c r="L22" t="s">
+        <v>169</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>171</v>
+      </c>
+      <c r="J23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" t="s">
+        <v>173</v>
+      </c>
+      <c r="L23" t="s">
+        <v>174</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>175</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24" t="s">
+        <v>178</v>
+      </c>
+      <c r="K24" t="s">
+        <v>179</v>
+      </c>
+      <c r="L24" t="s">
+        <v>180</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>181</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J25" t="s">
+        <v>184</v>
+      </c>
+      <c r="K25" t="s">
+        <v>185</v>
+      </c>
+      <c r="L25" t="s">
+        <v>186</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>175</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>189</v>
+      </c>
+      <c r="J26" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" t="s">
+        <v>191</v>
+      </c>
+      <c r="L26" t="s">
+        <v>192</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>181</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>194</v>
+      </c>
+      <c r="J27" t="s">
+        <v>195</v>
+      </c>
+      <c r="K27" t="s">
+        <v>196</v>
+      </c>
+      <c r="L27" t="s">
+        <v>197</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>198</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>199</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J28" t="s">
+        <v>201</v>
+      </c>
+      <c r="K28" t="s">
+        <v>202</v>
+      </c>
+      <c r="L28" t="s">
+        <v>203</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>198</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>205</v>
+      </c>
+      <c r="J29" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" t="s">
+        <v>207</v>
+      </c>
+      <c r="L29" t="s">
+        <v>208</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>209</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>211</v>
+      </c>
+      <c r="J30" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" t="s">
+        <v>213</v>
+      </c>
+      <c r="L30" t="s">
+        <v>214</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>209</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>216</v>
+      </c>
+      <c r="J31" t="s">
+        <v>217</v>
+      </c>
+      <c r="K31" t="s">
+        <v>218</v>
+      </c>
+      <c r="L31" t="s">
+        <v>219</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>209</v>
+      </c>
+      <c r="O31" t="s">
+        <v>220</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>222</v>
+      </c>
+      <c r="J32" t="s">
+        <v>223</v>
+      </c>
+      <c r="K32" t="s">
+        <v>224</v>
+      </c>
+      <c r="L32" t="s">
+        <v>225</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>226</v>
+      </c>
+      <c r="O32" t="s">
+        <v>127</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>227</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>228</v>
+      </c>
+      <c r="J33" t="s">
+        <v>229</v>
+      </c>
+      <c r="K33" t="s">
+        <v>230</v>
+      </c>
+      <c r="L33" t="s">
+        <v>231</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>232</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>233</v>
+      </c>
+      <c r="X33" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>237</v>
+      </c>
+      <c r="J34" t="s">
+        <v>238</v>
+      </c>
+      <c r="K34" t="s">
+        <v>239</v>
+      </c>
+      <c r="L34" t="s">
+        <v>240</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>232</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>242</v>
+      </c>
+      <c r="J35" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" t="s">
+        <v>244</v>
+      </c>
+      <c r="L35" t="s">
+        <v>245</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>226</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>247</v>
+      </c>
+      <c r="J36" t="s">
+        <v>248</v>
+      </c>
+      <c r="K36" t="s">
+        <v>249</v>
+      </c>
+      <c r="L36" t="s">
+        <v>250</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>226</v>
+      </c>
+      <c r="O36" t="s">
+        <v>220</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>251</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>252</v>
+      </c>
+      <c r="J37" t="s">
+        <v>253</v>
+      </c>
+      <c r="K37" t="s">
+        <v>254</v>
+      </c>
+      <c r="L37" t="s">
+        <v>255</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>226</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>256</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>257</v>
+      </c>
+      <c r="J38" t="s">
+        <v>258</v>
+      </c>
+      <c r="K38" t="s">
+        <v>259</v>
+      </c>
+      <c r="L38" t="s">
+        <v>260</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>261</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>262</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>263</v>
+      </c>
+      <c r="J39" t="s">
+        <v>264</v>
+      </c>
+      <c r="K39" t="s">
+        <v>265</v>
+      </c>
+      <c r="L39" t="s">
+        <v>266</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>261</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>268</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>269</v>
+      </c>
+      <c r="J40" t="s">
+        <v>270</v>
+      </c>
+      <c r="K40" t="s">
+        <v>271</v>
+      </c>
+      <c r="L40" t="s">
+        <v>272</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>273</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>274</v>
+      </c>
+      <c r="J41" t="s">
+        <v>275</v>
+      </c>
+      <c r="K41" t="s">
+        <v>276</v>
+      </c>
+      <c r="L41" t="s">
+        <v>277</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>278</v>
+      </c>
+      <c r="O41" t="s">
+        <v>127</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>280</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J42" t="s">
+        <v>282</v>
+      </c>
+      <c r="K42" t="s">
+        <v>283</v>
+      </c>
+      <c r="L42" t="s">
+        <v>284</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>285</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>286</v>
+      </c>
+      <c r="X42" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>289</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>290</v>
+      </c>
+      <c r="J43" t="s">
+        <v>291</v>
+      </c>
+      <c r="K43" t="s">
+        <v>292</v>
+      </c>
+      <c r="L43" t="s">
+        <v>293</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>294</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>295</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>296</v>
+      </c>
+      <c r="J44" t="s">
+        <v>297</v>
+      </c>
+      <c r="K44" t="s">
+        <v>298</v>
+      </c>
+      <c r="L44" t="s">
+        <v>299</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>300</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>301</v>
+      </c>
+      <c r="J45" t="s">
+        <v>302</v>
+      </c>
+      <c r="K45" t="s">
+        <v>303</v>
+      </c>
+      <c r="L45" t="s">
+        <v>304</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>294</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>305</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>306</v>
+      </c>
+      <c r="J46" t="s">
+        <v>302</v>
+      </c>
+      <c r="K46" t="s">
+        <v>307</v>
+      </c>
+      <c r="L46" t="s">
+        <v>308</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>294</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>309</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>310</v>
+      </c>
+      <c r="J47" t="s">
+        <v>311</v>
+      </c>
+      <c r="K47" t="s">
+        <v>312</v>
+      </c>
+      <c r="L47" t="s">
+        <v>313</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>314</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>315</v>
+      </c>
+      <c r="X47" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>318</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>319</v>
+      </c>
+      <c r="J48" t="s">
+        <v>320</v>
+      </c>
+      <c r="K48" t="s">
+        <v>321</v>
+      </c>
+      <c r="L48" t="s">
+        <v>322</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>314</v>
+      </c>
+      <c r="O48" t="s">
+        <v>220</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>323</v>
+      </c>
+      <c r="X48" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>326</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>327</v>
+      </c>
+      <c r="J49" t="s">
+        <v>328</v>
+      </c>
+      <c r="K49" t="s">
+        <v>329</v>
+      </c>
+      <c r="L49" t="s">
+        <v>330</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>314</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>331</v>
+      </c>
+      <c r="X49" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>333</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_694.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_694.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="382">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>robertmB6686XX</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Betty345123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r570851386-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>DC3s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r561500445-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>Jennifer M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r555220099-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>Hillrae</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r554949589-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t>Stayed one night during the Ft. worth stockshow. Very impressed with the facility. Not the easiest to get to, but good restaurants nearby. Staff was very friendly during check-in and out. Room was modern, very clean and very spacious!!  Will stay here again!</t>
   </si>
   <si>
+    <t>Sharley M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r553785533-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -268,6 +286,9 @@
   </si>
   <si>
     <t>This hotel has the most fantastic amenities for an incredible price indoor pool, spa, pool table, bar, patio with fire place, and miniature golf, our son loves playing jinga, and arcade, while enjoy a drink and play pool!!! It's a win win. The very best part is the staff! We met Marienella I hope I said that right one of the managers and she truly is top notch and the little woman who keeps up the breakfast is such a sweetheart. We only live 2 hours away but have came here 10 or more times just to relax and get away!!! It really is our favorite hotel and we travel a lot! Thanks so much for keeping the prices affordable for such an amazing place!More</t>
+  </si>
+  <si>
+    <t>persaude</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r549327100-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -313,6 +334,9 @@
 My family will...The location was discreet but near many eating places and anywhere you wanted to be in Fortworth! The hotel itself is well pointed! The fresh smell of cedar whether it be real are artificial is a welcoming fragrance in an accommodation that might be otherwise overcome by other odors in a large city.The decorations drew in the eyes and appealed to both old and young! A cocktail bar flanked the sides to a nice recreational table and jukebox! Nice touch!The pool was a good size for a nice evening or early morning dip at 6 am. The hot tub was more like a crater able to accommodate many heavy laden bodies at once!Our room was awesome! We are a family of four and it can easily lodge 6, with the two queen beds and sofa sleeper. I love the space, natural-color palettes, play with lighting, space, and amenities!The bathroom light and bright! The only drawback is because the door is glazed glass anyone sleeping on the other side might be awakened by the glow. Also, be careful with the sliding door it can catch your finger or hand and is quite jarring. The breakfast was good, except they really should change the brand of waffle mix it sits on your tongue like a sponge and in your stomach, it feels even worse! The staff from the front desk to the housekeeping was outstanding! My family will definitely stay here again without apprehension!Kudos to Tammy Vallejos, LLuvia Camargo and the staff who worked on 22-23 Dec between the hours of 4pm-10 am. Thank You!More</t>
   </si>
   <si>
+    <t>Fracdaddy88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r548486430-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -328,6 +352,9 @@
     <t>Always enjoy my stay at this hotel,I travel a lot and this has to be the best place I have ever stayed.Its not a full service hotel but they have great amenities and the staff here makes you feel very welcome thanks to brichell and her front desk personnel for greeting me morning and evening with a smile also the bar tender christan is awesome.</t>
   </si>
   <si>
+    <t>Ladytstb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r544328549-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -343,6 +370,9 @@
     <t>The hotel was beautiful and the staff was awesome.  We were completely satisfied with guests services.  A special thanks to LLuvia Camacho, Keesa, Brechell, Geneva and Acosta for making our stay very pleasant and for going the extra mile to ensure we were satisfied and for making sure all of our needs were met.  Highly recommended.</t>
   </si>
   <si>
+    <t>Brittney M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r541482608-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -358,6 +388,9 @@
     <t>I️ have been coming here every week for the last 8 weeks and every stay is exceptional. Brechelle really goes out of her way to take care of all my needs. She is the reason I️ keep coming back! You rock, Brechelle!</t>
   </si>
   <si>
+    <t>Arash S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r541423504-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -373,6 +406,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>spyzep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r541187938-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -388,6 +424,9 @@
     <t>I am relocating to the Dallas / Ft. Worth area and I have been staying at this location for several months - typically four nights a week.  The staff is exceptional; they great me by my name every stay, look out for my every little need and make me feel especially valued as a customer.  The rooms are fantastic, the price is right and the location is excellent.......why would I go anywhere else!</t>
   </si>
   <si>
+    <t>BSorrow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r537375255-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -406,6 +445,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Jim K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r535788294-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -424,6 +466,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>dawnguthrie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r535231614-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -439,6 +484,9 @@
     <t>We went down for a wedding and stayed here 4 days. The entire staff from front desk to housekeeping were so friendly. The room was clean and one of the largest rooms we’ve ever stayed in. The breakfast was plentiful and changed from the weekend menu to a weekday menu. Must say I liked the weekday menu better because it was even more varied. There was cookies one night and cupcakes the next night for an evening snack. When we go back we will make it a point to stay here again!!!</t>
   </si>
   <si>
+    <t>jamlewis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r508026972-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -466,6 +514,9 @@
     <t>The property is new and well kept. Very clean.  Nice upscale amenities and outdoor recreational space. Staff was very nice and accommodating.  Relatively convenient to nearby dining.  Unfortunately the way it is positioned on their parcel of land the freeway noise is unavoidable, and I would not stay there again because of it. I had to use earplugs due to the road noise, and I had a low floor room facing another hotel , which was as good as it could get.  I can usually mitigate the road noise with the AC, but their AC is ducted and not a typical hotel AC, so there was little to no noise when the AC was in use.My comment to the developer- why put such a nice building with balconies etc RIGHT ON A MAJOR FREEWAY?  At least orient the building so one side is not exposed to the freeway.  Or as an alternative install better glass or even noise dampening curtains/window coverings.More</t>
   </si>
   <si>
+    <t>Kristin D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r503552749-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -487,6 +538,9 @@
     <t>We had such a great stay at SpringHill Suites.  The hotel is very new and modern.  The entire hotel is clean and well cared for.  The complimentary breakfast is fantastic.  Coffee was good.  There is something for everyone at breakfast- chobani yogurts, granola, cereal, bagels, pastries, fruit, oatmeal, omelets, bacon, croissants...the list goes on and on.Staff was beyond helpful and professional. Very polite and accommodating.  Check in and check out were very quick and easy.Room was lovely.  Bed was very comfortable.  Bathroom was clean and spacious with a very modern shower. It exceeded my expectations.  Hotel was quiet, easy to sleep.Gym and pool are clean and well cared for.  Hot tub was HOT and a nice relaxing experience.  I highly recommend staying here.  We were sad to check out.  My only suggestion to management would be to add another washing machine and dryer to the laundry room.  There was quite a line waiting to use the machines, we were awake until past midnight before ours finished, and there was a gentleman after us.More</t>
   </si>
   <si>
+    <t>Eric K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r502256673-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -502,6 +556,9 @@
     <t>It's a relatively new hotel, so the accommodations were everything I could ask for and more.  It was the employee's professionalism that will make sure I get back to visit again.  Everyone was super helpful and understanding when I arrived to check in and there was a line of about ten people waiting.  While all their stations were full (getting people through quickly), someone made sure to hand out cold bottled water to anyone coming in from the super hot day.  Thank you for all that and more!</t>
   </si>
   <si>
+    <t>Mark J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r486090962-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -520,6 +577,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Lindsay Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r484796761-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -538,6 +598,9 @@
     <t>I was in town for a wedding with my Mother and Sister for a long weekend and we had the joy of staying at this hotel.  While we had terrible trouble getting around the area with all the construction, the hotel was the redeeming aspect of our travels.  The staff was friendly, polite, and helpful.  The complimentary breakfast was so good.  The room was everything we needed and then some. I had to do some work while there and found it easy to work from the mid-room desk and close the glass to shut off my sister and mother watching TV on the other side.  The back and front patios were so pleasant to utilize for happy hour and for breakfast I enjoyed our visit and if I ever find myself in that terrible area again, I would love to stay there again.More</t>
   </si>
   <si>
+    <t>WiMomwithteens</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r484785494-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -550,6 +613,9 @@
     <t xml:space="preserve">This new hotel is very nice.  The shower is amazing!!!  The beds are comfy, and you don't hear highway noise.  The fitness room has a decent amount of equipment, and the outdoor area is very nice as well.  The only drawback while we were there was the highway construction- once we found an alternative route to the TCU area, life improved.  </t>
   </si>
   <si>
+    <t>hsha88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r472703089-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -568,6 +634,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>OWLTOBIN4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r471184486-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -586,6 +655,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>mee338</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r470324590-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -604,6 +676,9 @@
     <t>This is a GREAT hotel.  Only about a year old so everything is new.  The location is really good as right next to the highway for eas yaccess.  Airport aout 20 minutes, Stockyards about 15 minutes.  The breakfast is large, and the ladies do a GREAT job at keeping it full and tasty.  They have a night bar open for drinks and an open lounge. Our favorite part was that there were two outdoor lounges to sit at and work with plenty of seating (20 out front, 40+ out back).  Sat out there for hours late afternoon into evening working on the computers and just talking.  The rooms are typical but they have more upgrades in style.  The front desk personnel were really fun and helpful with directions to local eating places and always asking us when we returned about our adventure and what we bought.  Kelli and Lluvia were especially nice to us. Have visited FTW about 2 dozen times but now like this hotel the best for location, quality, personnel, ammenities and price.  Will make this out new stay.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r464182226-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -619,6 +694,9 @@
     <t>Nice and courtesy people that worked  there this was our second stay very clean . Only thing that I would suggest is expand breakfast ☺️we really like the area , even being right next to the freeway we did not have any noise pollution which is great for sleeping. I would suggest sturdy pillows also but the stay was good .</t>
   </si>
   <si>
+    <t>BibhuRath</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r458745670-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -637,6 +715,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Dawn C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r456258851-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -652,6 +733,9 @@
     <t>Booked this hotel while we were in town for a gymnastics meet.  I will definitely book and stay again.  Hotel is very clean.  Staff was very friendly and helpful.  Our room was spacious.  Breakfast was good.  The pool and workout facility were nice.  We have no complaints about this hotel.</t>
   </si>
   <si>
+    <t>Debster01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r451784086-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -670,6 +754,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Yilmaz A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r451487234-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -685,6 +772,9 @@
     <t>What a hotel! I stayed at some expensive hotels but this one is as good as those high end hotels. Just to heck of it, you should just walk-in and check the brand spanking new, contemporary lobby and the rooms to see where hotel industry is going forward. Room, service and breakfast were also exceptional.</t>
   </si>
   <si>
+    <t>Wiringguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r446931252-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -703,6 +793,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>audrasmith78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r437206394-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -719,6 +812,9 @@
   </si>
   <si>
     <t>October 2016</t>
+  </si>
+  <si>
+    <t>NanaTX1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r436151867-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -752,6 +848,9 @@
 We in no way felt this was an isolated incident and felt very sure that any chance given to make more money from a preferred client would be jumped at with no remorse. Shameful way to do business. We will not return and will be sure to tell our friends and...We had a reservation and stayed at this hotel last week. My daughter and son-in-law reserved the two bedroom suite/apartment so that we, along with my son-in-law's parents could all be together for a vacation. We grandparents each reserved suites, as well. At basically the last minute, the hotel decided they could make more money off of a corporate client who decided they wanted the room that my daughter had already booked and so they gave it to them instead. What a dirty way to treat your customers. Sorry we wouldn't have made you the same money that your corporate clients would, but a reservation is a reservation and to cancel it in such a way is a terrible way to treat your guests. The attitudes from management were unhelpful and dismissive. While my daughter's family's consolation room was discounted, it gave us nowhere to gather together and completely fouled up our plans that we had carefully made well in advance with a confirmed reservation. The cursory note from management on my daughter's review below does nothing to make up for what should have been a carefree family gathering. We in no way felt this was an isolated incident and felt very sure that any chance given to make more money from a preferred client would be jumped at with no remorse. Shameful way to do business. We will not return and will be sure to tell our friends and family who visit to stay away from this property.More</t>
   </si>
   <si>
+    <t>Patrick K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r435939459-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -767,6 +866,9 @@
     <t>I have stayed for business for almost 6 months now, it feels like 2nd homeThe staff and management would do any thing to make your stay enjoyable in a very professional manner I highly recommend this hotel for your next stay</t>
   </si>
   <si>
+    <t>andyswagner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r432709027-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -782,6 +884,9 @@
     <t>I've been staying at this hotel on business for over 6 months and this is a great place to stay if you find yourself in the Fossil Creek area of Fort Worth, TX. Opening this past March, the modern rooms and high tech conveniences make it easy for the road warrior to get the job done. To add to the amenities, the staff from the general manager, front desk team and housekeeping are personable, friendly and always willing to help. After 6 months, I have no trouble calling the SpringHill suites at Fossil Creek my home away from home. I highly recommend this hotel.</t>
   </si>
   <si>
+    <t>JKJB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r430357019-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -797,6 +902,9 @@
     <t>Beautiful and bright friendly atmosphere!Plenty of group seating areas both inside and out.  Staff is very friendly and helpful. Rooms are comfortable and designed with the digital generation in mind! Outlets everywhere!</t>
   </si>
   <si>
+    <t>rebecca c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r427347949-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -812,6 +920,9 @@
     <t xml:space="preserve">Very new!  Nice decor, trendy n friendly staff.  There's a bar area n an outside lounge area with relaxing sofas n chairs.  A small greens area as well.  Murals are in each room on one wall.  The suites have an expandable sofa.  Fridge n microwave.  </t>
   </si>
   <si>
+    <t>dcwrigh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r422062039-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -830,6 +941,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Scott G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r415927778-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -848,6 +962,9 @@
     <t>My wife and I took my in-laws to see USC play Alabama at the Dallas Cowboy's stadium.  Alabama dominated my USC Trojans 52-6 in the football game, which was disappointing.  What was not disappointing was our hotel.  The SpringHill Suites Fossil Creek is an exceptional place to stay.  Freeway close with no freeway sound to contend with in the rooms.  The entire facility was clean and well kept.  The front desk and hotel staff were very friendly, helpful, and informative.  Requests for extra towels were executed quickly and with a smile.  Directions to different locations were given freely and accurately.  Dinning suggestions were also spot on as to quality locations to dine.The hotel offers a buffet breakfast of eggs, bacon, toast, cereal, and drinks.  The food would do if you are in a hurry and need something quick, but not something to write home about.  All in all I would stay at this hotel again when in the Fort Worth area.More</t>
   </si>
   <si>
+    <t>Bricynt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r412277241-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -863,6 +980,9 @@
     <t xml:space="preserve">Hubby and I were looking to take a quick respite and decided we needed a STAYCATION. We discovered this quaint property in Ft Worth and boy was it a FIND! The hotel is pretty new in fact, rooms are excellently decorated. I am a big fan of suite hotels and this location did not disappoint. The breakfast was excellent choices - as are many SpringHill Suite locations, lots of variety, the lobby was pleasant just to hang out the parking was plentiful and most importantly the staff from the front desk to the maintenance men were top notch! We definitely will return. </t>
   </si>
   <si>
+    <t>nebgirl25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r393722620-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -884,6 +1004,9 @@
     <t>We stayed here on a trip to Billy Bob's earlier in the year. The hotel was new and still not fully finished. The bar area was not complete nor open. The internet was down the entire time we stayed. Our room was clean and comfortable,but there were still some holes and unfinished tiles. We had no cell phone service in our room,due to the location of our room in the hotel. The staff was very friendly and helpful though. The grounds were clean, as was the hotel itself. The breakfast was very fresh and yummy. However there was a dance convention or something going on and there were large groups of families and kids. They were very loud and rude. We ended up taking our food to our room, after hearing them complain and treat the staff with disrespect. If we ever plan to visit Ft. Worth again we would probably stay here again.More</t>
   </si>
   <si>
+    <t>Doug78750</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r392542201-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -911,6 +1034,9 @@
     <t>This property is very nice and relatively new.  The staff, which seem in abundance, are all very pleasant and helpful.  However, two mornings in a row, at 8:00AM, I asked that my room be cleaned before I returned at 10:30AM.  I was assured that it would be done.  I was let down on both occasions.  Not a big deal, but also not a hard thing to do.  Also, when I ordered chips and salsa at the bar, the chips were stale.  Without requesting, the cost of the order was deleted from my bill.  Also, when I pointed out that my room wasn't cleaned as requested 2 days in a row, they offered me something out of their 'marketplace' store or from the bar (which I declined because that's not why I was telling them).Last point, I stayed here on points, and it is a great deal.  However my meetings are south of Fort Worth.  Be prepared for some horrific road/freeway construction between downtown FW and hotel...but not the hotel's fault.More</t>
   </si>
   <si>
+    <t>jdj3mhcecs6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r392224891-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -929,6 +1055,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>C D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r387993788-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -944,6 +1073,9 @@
     <t>I liked this hotel. Very nice, brand new facility. Room is great, suite style, but not a separate room for the sofa, and share one TV for whole room. The bathroom door slides, so it does not completely cover the opening. A bit strange. Wall AC vent, so that is nice, although it creates a little draft on the headboard end. Overall, very nice.</t>
   </si>
   <si>
+    <t>denise70508</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r383323192-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -959,6 +1091,9 @@
     <t xml:space="preserve">The hotel was excellent! Very modern! My kids absolutely loved the putt putt golf area and the pool! Also the staff made my experience a very pleasant one! I will definitely recommend this hotel to anyone!  The only thing that would have made this better is if I was able to stay more than one night! </t>
   </si>
   <si>
+    <t>J A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r383239639-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -971,6 +1106,9 @@
     <t>I stayed here for several nights and was blown away by the look and feel of this place! And I am in the same business - development and operating hotels! Between Marriott and the local design team - they were spot on with what people want in a hotel! And once the team tweaks a few operational concerns (which were minor!) everything will be perfect! Those who read this review can rest assured that you to should expect a great experience! Thank you and best of luck to the entire staff!</t>
   </si>
   <si>
+    <t>Tom W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r378290761-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -998,6 +1136,9 @@
     <t>I am typically a Courtyard guy, but since this was a new SpringHill I though I would give it a try. I am very glad that I did! If this is the new look for SpringHill hotels... no more Courtyards for me. Excellent room, very comfortable, great layout and plenty of room. Excellent shower as well! The gym is very nice for a hotel of this level. Top of the line elliptical machine, TRX system, weights, kettle bells, sit up balls, clean, overall very nice and well equipped. The staff was excellent, friendly, helpful and professional. The breakfast was very nice and typical of a Springhill and included cracked eggs. I would like a little better selection for a dinner meal, but the Cobb salad I had was very nice. Overall it was an excellent stay and I will definitely stay here again on my next trip to DFW.More</t>
   </si>
   <si>
+    <t>THOMAS L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r375119146-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1020,6 +1161,9 @@
   </si>
   <si>
     <t>Opened in April, 2016.  Very modern technology . . . you will love the showers!  The personnel have been highly trained and are very energetic and proud of this new property.  Extremely courteous.  So pleased with our stay here.More</t>
+  </si>
+  <si>
+    <t>WA509</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r374295325-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1548,43 +1692,47 @@
       <c r="A2" t="n">
         <v>64931</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>177881</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1604,50 +1752,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64931</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>177882</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -1665,50 +1817,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64931</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>177883</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
         <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1722,50 +1878,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64931</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>1363</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1779,50 +1939,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64931</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>177884</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>76</v>
       </c>
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>72</v>
-      </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1836,50 +2000,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64931</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>177885</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1893,50 +2061,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64931</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>177710</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1956,41 +2128,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64931</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>177886</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
@@ -2009,50 +2185,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64931</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>177887</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>96</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>89</v>
-      </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2066,41 +2246,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64931</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>177888</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
@@ -2119,50 +2303,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64931</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>177889</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2180,50 +2368,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64931</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>177890</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2243,50 +2435,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64931</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>177891</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2300,50 +2496,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64931</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>8437</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2357,50 +2557,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64931</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>177892</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2414,50 +2618,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64931</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>177893</v>
+      </c>
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="J17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2473,56 +2681,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="X17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="Y17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64931</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>84290</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="O18" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2540,50 +2752,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64931</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>2295</v>
+      </c>
+      <c r="C19" t="s">
+        <v>166</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="J19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2603,50 +2819,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64931</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>4065</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="J20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2660,50 +2880,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64931</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>177894</v>
+      </c>
+      <c r="C21" t="s">
+        <v>179</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="J21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="K21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="L21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2723,50 +2947,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64931</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>177895</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="J22" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2780,50 +3008,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64931</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>177896</v>
+      </c>
+      <c r="C23" t="s">
+        <v>191</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="J23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="K23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="L23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2837,50 +3069,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64931</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>177897</v>
+      </c>
+      <c r="C24" t="s">
+        <v>198</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="J24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="K24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2898,50 +3134,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64931</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>177898</v>
+      </c>
+      <c r="C25" t="s">
+        <v>205</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="J25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -2961,50 +3201,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64931</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>212</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="J26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3018,50 +3262,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>64931</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>177899</v>
+      </c>
+      <c r="C27" t="s">
+        <v>218</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="J27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3081,50 +3329,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>64931</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>38581</v>
+      </c>
+      <c r="C28" t="s">
+        <v>225</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="J28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="K28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3144,50 +3396,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>64931</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>177900</v>
+      </c>
+      <c r="C29" t="s">
+        <v>231</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="J29" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="K29" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3207,50 +3463,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>64931</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>177901</v>
+      </c>
+      <c r="C30" t="s">
+        <v>238</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="J30" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="K30" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3270,50 +3530,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>64931</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>177902</v>
+      </c>
+      <c r="C31" t="s">
+        <v>244</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="J31" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="K31" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="O31" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3327,50 +3591,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>64931</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>177903</v>
+      </c>
+      <c r="C32" t="s">
+        <v>251</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="J32" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="K32" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="L32" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="O32" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3384,50 +3652,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>64931</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>177904</v>
+      </c>
+      <c r="C33" t="s">
+        <v>258</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="J33" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="K33" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="L33" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3441,56 +3713,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="X33" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="Y33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>64931</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>11711</v>
+      </c>
+      <c r="C34" t="s">
+        <v>268</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="J34" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="K34" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3504,50 +3780,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>64931</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>177905</v>
+      </c>
+      <c r="C35" t="s">
+        <v>274</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="J35" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="K35" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -3561,50 +3841,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>64931</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>177906</v>
+      </c>
+      <c r="C36" t="s">
+        <v>280</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="J36" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="K36" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s">
+        <v>285</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>257</v>
+      </c>
+      <c r="O36" t="s">
         <v>250</v>
-      </c>
-      <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>226</v>
-      </c>
-      <c r="O36" t="s">
-        <v>220</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3618,50 +3902,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>64931</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>177907</v>
+      </c>
+      <c r="C37" t="s">
+        <v>286</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="J37" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="K37" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="L37" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -3675,50 +3963,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>64931</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>177908</v>
+      </c>
+      <c r="C38" t="s">
+        <v>292</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="J38" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="K38" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="L38" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -3732,50 +4024,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>64931</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>18686</v>
+      </c>
+      <c r="C39" t="s">
+        <v>299</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="J39" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="K39" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="L39" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -3793,41 +4089,45 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>64931</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>38423</v>
+      </c>
+      <c r="C40" t="s">
+        <v>306</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="J40" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="K40" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
@@ -3846,50 +4146,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>64931</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>177909</v>
+      </c>
+      <c r="C41" t="s">
+        <v>312</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="J41" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="K41" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="L41" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="O41" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -3907,50 +4211,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>64931</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>177910</v>
+      </c>
+      <c r="C42" t="s">
+        <v>320</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="J42" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="K42" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="L42" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="O42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -3966,56 +4274,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="X42" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="Y42" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>64931</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>177911</v>
+      </c>
+      <c r="C43" t="s">
+        <v>330</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="J43" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="K43" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="L43" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4035,41 +4347,45 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>64931</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>67863</v>
+      </c>
+      <c r="C44" t="s">
+        <v>337</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="J44" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="K44" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="L44" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
@@ -4088,50 +4404,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>64931</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>177912</v>
+      </c>
+      <c r="C45" t="s">
+        <v>343</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="J45" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="K45" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="L45" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="O45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4145,50 +4465,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>64931</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>58729</v>
+      </c>
+      <c r="C46" t="s">
+        <v>349</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="J46" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="K46" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4208,50 +4532,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>64931</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>14423</v>
+      </c>
+      <c r="C47" t="s">
+        <v>354</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="J47" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="K47" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="L47" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -4267,56 +4595,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="X47" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="Y47" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>64931</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>177913</v>
+      </c>
+      <c r="C48" t="s">
+        <v>364</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="J48" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="K48" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="L48" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="O48" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4334,56 +4666,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="X48" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="Y48" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>64931</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>177914</v>
+      </c>
+      <c r="C49" t="s">
+        <v>373</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="J49" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="K49" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="L49" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -4399,13 +4735,13 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="X49" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="Y49" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_694.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_694.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="568">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,183 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>robertmB6686XX</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r606417544-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>9778909</t>
+  </si>
+  <si>
+    <t>606417544</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>Awesome  very modern!</t>
+  </si>
+  <si>
+    <t>Loved this hotel!  Overall 4.5 Overall looks 4.5  Bed 5.0  Pool  5.0   Breakfast  3.0   Spend the extra $20 from the fairfield  and stay here  you wont be sorry!  The bed was the best part,  it felt like brand new</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r601440108-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>601440108</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Excellent accommodation overall</t>
+  </si>
+  <si>
+    <t>Excellent hotel accommodation, great location. Excellent guest service, especially Bailey, front desk and GM. Clean nice interior, breakfast wasGood. Highly recommend this to other travelers. Beautiful lobby.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r598226461-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>598226461</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t>Great for a quick stay</t>
+  </si>
+  <si>
+    <t>I stayed here for a business trip.  My room was large, modern and clean - perfect for a business trip! This must be a very newly built hotel as I was impressed with my room. Service was good and so is the location.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r596003311-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>596003311</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>MISLEADING - Poor Management</t>
+  </si>
+  <si>
+    <t>As a frequent traveler, an an elite member at hilton, spg, and marriott over the years i've spent my fair share of time at various hotels of all levels.  and while I've had good and bad experiences I've never once felt like I was so blatantly lied too during the booking process.While booking this hotel on Marriott.com it is very obvious that the property is promoting it's "executive suites" which are clearly a step up from their typical rooms in furnishings.  Yet they are never bookable???  upon checking in i inquired as to how someone can book the rooms so widely promoted and I was informed that they were not part of the regular hotel inventory and could only be booked/upgraded too by contacting the property in person.  this is a very deceptive practice as the website makes no mention that this is a hotel within a hotel with separate booking. I understand that these are not typical spring hill suites rooms but if they are not part of the hotel in terms of booking and upgrading benefits than don't market it as a single hotel.  Management's and Marriott response has been extremely disappointing as both have basically blamed the other.Extremely disappointing and will be avoiding this property in the future for this type of misleading business practiceMoreShow less</t>
+  </si>
+  <si>
+    <t>Tammy V, Manager at SpringHill Suites Fort Worth Fossil Creek, responded to this reviewResponded July 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2018</t>
+  </si>
+  <si>
+    <t>As a frequent traveler, an an elite member at hilton, spg, and marriott over the years i've spent my fair share of time at various hotels of all levels.  and while I've had good and bad experiences I've never once felt like I was so blatantly lied too during the booking process.While booking this hotel on Marriott.com it is very obvious that the property is promoting it's "executive suites" which are clearly a step up from their typical rooms in furnishings.  Yet they are never bookable???  upon checking in i inquired as to how someone can book the rooms so widely promoted and I was informed that they were not part of the regular hotel inventory and could only be booked/upgraded too by contacting the property in person.  this is a very deceptive practice as the website makes no mention that this is a hotel within a hotel with separate booking. I understand that these are not typical spring hill suites rooms but if they are not part of the hotel in terms of booking and upgrading benefits than don't market it as a single hotel.  Management's and Marriott response has been extremely disappointing as both have basically blamed the other.Extremely disappointing and will be avoiding this property in the future for this type of misleading business practiceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r590724546-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>590724546</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Beautiful hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed at this hotel for 2 nights. The property was very well kept and fairly new. The hotel room was very modern, but the pillows were complete crap.  The front desk staff were very courteous and breakfast was adequate. </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r588891774-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>588891774</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Nice place to visit.</t>
+  </si>
+  <si>
+    <t>Location was great. Hotel staff were warm, friendly, and competent! Front desk staffer, Dani, was outstanfing! Housekeeper, Maria, was excellent! Free breakfast wasn't good! It was cold, eggs sucked, bread items weren't fresh. This information was shared with the hotel manager, a d she responded with care and concern. One other negative, no complimentary happy hour!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Tammy V, General Manager at SpringHill Suites Fort Worth Fossil Creek, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Location was great. Hotel staff were warm, friendly, and competent! Front desk staffer, Dani, was outstanfing! Housekeeper, Maria, was excellent! Free breakfast wasn't good! It was cold, eggs sucked, bread items weren't fresh. This information was shared with the hotel manager, a d she responded with care and concern. One other negative, no complimentary happy hour!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r586959745-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>586959745</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel (&amp; Staff) Next to 820 in Fort Worth</t>
+  </si>
+  <si>
+    <t>We were scheduled to stay in a different Marriott property when we were moved to this property due to a water line break at our original hotel. At first we were a bit concerned - nevertheless, it was near our destination location, so we accepted the change. Once at the SpringHill Suites, Fossil Creek, we were positively impressed by the outstanding staff and well appointed facilities. Our suite was very comfortable and the amenities were excellent. As mentioned, the staff (such as the front desk staff Brechelle Larkins,  Allan Grey and others) were tremendously helpful and supportive. They assisted us in every way and made us feel as though we were "special". The hotel has a nice indoor pool &amp; spa and well equipped exercise area. The complimentary breakfast was far superior to the typical "free breakfast" fare found in other hotels. As for the hotel's location ... I must admit it was a challenge for me to find the property (since I am certainly NOT used to driving in large, congested cities ... and there continues to be a great deal of construction on IH 35W), but once we found it and acquainted ourselves with the area, it proved to be an excellent hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We were scheduled to stay in a different Marriott property when we were moved to this property due to a water line break at our original hotel. At first we were a bit concerned - nevertheless, it was near our destination location, so we accepted the change. Once at the SpringHill Suites, Fossil Creek, we were positively impressed by the outstanding staff and well appointed facilities. Our suite was very comfortable and the amenities were excellent. As mentioned, the staff (such as the front desk staff Brechelle Larkins,  Allan Grey and others) were tremendously helpful and supportive. They assisted us in every way and made us feel as though we were "special". The hotel has a nice indoor pool &amp; spa and well equipped exercise area. The complimentary breakfast was far superior to the typical "free breakfast" fare found in other hotels. As for the hotel's location ... I must admit it was a challenge for me to find the property (since I am certainly NOT used to driving in large, congested cities ... and there continues to be a great deal of construction on IH 35W), but once we found it and acquainted ourselves with the area, it proved to be an excellent hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r583160338-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>583160338</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Surprisingly great!!</t>
+  </si>
+  <si>
+    <t>Stayed here with the family.  The location is at a very busy spot but once on the grounds and especially inside it's like you are in a little oasis far away!  The hotel is new, modern, sleek and a little quirky.   There's a pool table, juke box in the lobby and some swings and a putting green out by the fire pit.   The rooms are spacious and were very clean.  There was a nice workout room and a small indoor pool.  Breakfast was one of the better "free" breakfasts I've had in selection, appearance and taste.  All staff I encountered were very friendly as well.  Would definitely stay here again if in the area.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here with the family.  The location is at a very busy spot but once on the grounds and especially inside it's like you are in a little oasis far away!  The hotel is new, modern, sleek and a little quirky.   There's a pool table, juke box in the lobby and some swings and a putting green out by the fire pit.   The rooms are spacious and were very clean.  There was a nice workout room and a small indoor pool.  Breakfast was one of the better "free" breakfasts I've had in selection, appearance and taste.  All staff I encountered were very friendly as well.  Would definitely stay here again if in the area.  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r577334654-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>9778909</t>
-  </si>
-  <si>
     <t>577334654</t>
   </si>
   <si>
@@ -180,12 +342,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Betty345123</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r570851386-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -204,12 +360,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>DC3s</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r561500445-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -228,7 +378,43 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t>Jennifer M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r557538362-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>557538362</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>This is THE hotel to stay in Fort Worth</t>
+  </si>
+  <si>
+    <t>Just 15 minutes from downtown, save on the downtown Hotel rates, very close to most interest points. Great for families, indoor pool, mini-golf, giant jenga, kids will be entertained while you are having a cocktail. Rooms are very clean, and friendly customer service. The complimentary breakfast is great. Overall you wont regret staying at this property.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r555698165-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>555698165</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service, friendly staff, well maintained, great facilities</t>
+  </si>
+  <si>
+    <t>1. The hotel is very new, very well maintained and is very clean. The facilities at the hotel are really good - indoor heated pool, Jacuzzi, fire place, swings, nice bar with great friendly service.2. The hotel staff goes above and beyond to help you out.  3. After a couple of stays, the staff starts communicating with you by name which speaks volumes of their customer service.  4.In particular I have to mention outstanding service from Lluvia Camargo who is the front desk manager.  She helped me with booking a room several times when they were completely sold out.  5. When I had issues with my room lock or issues with getting an even number room to stay away from the highway, Brechelle Larkins (Front Desk Manager) went out of her way to make sure that I got the room of my choice.  She also helped with fixing the swimming pool water temperature when requested.  She always greets everyone with lot of respect and enthusiasm and shows lot of concern for their comfort. 6. Overall, I would highly recommend this hotel for both personal and business stays.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>1. The hotel is very new, very well maintained and is very clean. The facilities at the hotel are really good - indoor heated pool, Jacuzzi, fire place, swings, nice bar with great friendly service.2. The hotel staff goes above and beyond to help you out.  3. After a couple of stays, the staff starts communicating with you by name which speaks volumes of their customer service.  4.In particular I have to mention outstanding service from Lluvia Camargo who is the front desk manager.  She helped me with booking a room several times when they were completely sold out.  5. When I had issues with my room lock or issues with getting an even number room to stay away from the highway, Brechelle Larkins (Front Desk Manager) went out of her way to make sure that I got the room of my choice.  She also helped with fixing the swimming pool water temperature when requested.  She always greets everyone with lot of respect and enthusiasm and shows lot of concern for their comfort. 6. Overall, I would highly recommend this hotel for both personal and business stays.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r555220099-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -246,12 +432,6 @@
     <t xml:space="preserve">I had a graduation to attend just passed Friday in Hurst. So we decided to stay in Fort Worth and found a nice place here in Fossil Creek. We are very familiar with Irving and Dallas but not this new area. I am very glad we stayed out here. The rooms are very nice size and I feel like the breakfast was generous! They have a bar the opens in the evening, a pool table, a jukebox, and a lovely outdoor patio area with a fire pit. The staff that we have met I've been very professional. The cleaning staff was phenomenal! </t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t>Hillrae</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r554949589-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -267,9 +447,6 @@
     <t>Stayed one night during the Ft. worth stockshow. Very impressed with the facility. Not the easiest to get to, but good restaurants nearby. Staff was very friendly during check-in and out. Room was modern, very clean and very spacious!!  Will stay here again!</t>
   </si>
   <si>
-    <t>Sharley M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r553785533-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -288,7 +465,40 @@
     <t>This hotel has the most fantastic amenities for an incredible price indoor pool, spa, pool table, bar, patio with fire place, and miniature golf, our son loves playing jinga, and arcade, while enjoy a drink and play pool!!! It's a win win. The very best part is the staff! We met Marienella I hope I said that right one of the managers and she truly is top notch and the little woman who keeps up the breakfast is such a sweetheart. We only live 2 hours away but have came here 10 or more times just to relax and get away!!! It really is our favorite hotel and we travel a lot! Thanks so much for keeping the prices affordable for such an amazing place!More</t>
   </si>
   <si>
-    <t>persaude</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r552000952-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>552000952</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t>Great stay, beautiful property</t>
+  </si>
+  <si>
+    <t>Great new and modern property perfect for a family or business stay.  Staff is friendly and attentive.  Complimentary breakfast was very good and included coffee, juice, cold cereal, fresh fruit, croissants, muffins, bread assortments, oatmeal, eggs, bacon, sausage, breakfast potatoes, vegetarian sausage, and a waffle station.  Also yogurt and milk and all necessary condiments including salsa, spinach and shredded cheese for your eggs! There is a sitting area with a huge jenga game, pool table, juke box and pac man arcade game located next to the bar area. Outside seating with fire pit and a put put golf area. Indoor pool and hot tub. Rooms are very nice with sitting area, desk area and nice closet space. I’m staying with my son for a hockey tournament and this is his favorite hotel and we have stayed in a lot of hotels. Would definitely stay here again.  Several restaurants close by as well. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great new and modern property perfect for a family or business stay.  Staff is friendly and attentive.  Complimentary breakfast was very good and included coffee, juice, cold cereal, fresh fruit, croissants, muffins, bread assortments, oatmeal, eggs, bacon, sausage, breakfast potatoes, vegetarian sausage, and a waffle station.  Also yogurt and milk and all necessary condiments including salsa, spinach and shredded cheese for your eggs! There is a sitting area with a huge jenga game, pool table, juke box and pac man arcade game located next to the bar area. Outside seating with fire pit and a put put golf area. Indoor pool and hot tub. Rooms are very nice with sitting area, desk area and nice closet space. I’m staying with my son for a hockey tournament and this is his favorite hotel and we have stayed in a lot of hotels. Would definitely stay here again.  Several restaurants close by as well. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r549465184-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>549465184</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>First night at the SpringHill Suites</t>
+  </si>
+  <si>
+    <t>My wife were booked to stay three nights at the nearby Hampton Inn &amp; Suites, however due to room maintenance we were moved to the SpringHill Suites for our first night. The new modern style quality was excellent with a comfortable bedroom and enormous bathroom with walk in shower room. The lounge offered a bar area and the excellent buffet breakfast was served here in the morning. This is a good location to be nearby but not actually in Dallas itself.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r549327100-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -334,9 +544,6 @@
 My family will...The location was discreet but near many eating places and anywhere you wanted to be in Fortworth! The hotel itself is well pointed! The fresh smell of cedar whether it be real are artificial is a welcoming fragrance in an accommodation that might be otherwise overcome by other odors in a large city.The decorations drew in the eyes and appealed to both old and young! A cocktail bar flanked the sides to a nice recreational table and jukebox! Nice touch!The pool was a good size for a nice evening or early morning dip at 6 am. The hot tub was more like a crater able to accommodate many heavy laden bodies at once!Our room was awesome! We are a family of four and it can easily lodge 6, with the two queen beds and sofa sleeper. I love the space, natural-color palettes, play with lighting, space, and amenities!The bathroom light and bright! The only drawback is because the door is glazed glass anyone sleeping on the other side might be awakened by the glow. Also, be careful with the sliding door it can catch your finger or hand and is quite jarring. The breakfast was good, except they really should change the brand of waffle mix it sits on your tongue like a sponge and in your stomach, it feels even worse! The staff from the front desk to the housekeeping was outstanding! My family will definitely stay here again without apprehension!Kudos to Tammy Vallejos, LLuvia Camargo and the staff who worked on 22-23 Dec between the hours of 4pm-10 am. Thank You!More</t>
   </si>
   <si>
-    <t>Fracdaddy88</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r548486430-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -352,9 +559,6 @@
     <t>Always enjoy my stay at this hotel,I travel a lot and this has to be the best place I have ever stayed.Its not a full service hotel but they have great amenities and the staff here makes you feel very welcome thanks to brichell and her front desk personnel for greeting me morning and evening with a smile also the bar tender christan is awesome.</t>
   </si>
   <si>
-    <t>Ladytstb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r544328549-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -370,7 +574,37 @@
     <t>The hotel was beautiful and the staff was awesome.  We were completely satisfied with guests services.  A special thanks to LLuvia Camacho, Keesa, Brechell, Geneva and Acosta for making our stay very pleasant and for going the extra mile to ensure we were satisfied and for making sure all of our needs were met.  Highly recommended.</t>
   </si>
   <si>
-    <t>Brittney M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r542213119-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>542213119</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Perfect Stay</t>
+  </si>
+  <si>
+    <t>One of the best hotel stays. The new hotel has everything. Rooms with balconies, Netflix on the TV, great climate control, cool high tech things in the rooms (like a digital display of the the shower water temp). The price is amazing for you get.The free breakfast is a wonderful hot breakfast.The hotel is beautiful on the inside and out. The rooms are huge.You can get anywhere in FtW quickly from the great location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r541878025-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>541878025</t>
+  </si>
+  <si>
+    <t>11/18/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised when I arrived at the hotel.  The photos on the website do not bring justice to it's actual beauty.  Entering the lobby you immediately feel relaxed (cool colors greet you).   The staff was amazing and check in was quick (we arrived late so this was much appreciated).  The room itself was spacious and modern.  The bed was comfortable and pillows easy to mold for comfort.  The show has a digital thermostat and you can adjust the water temperature with ease to your liking  There is a microwave, mini refrigerator, and a mini Keurig all in the suite.  The only disappointment to the stay was the complimentary breakfast, which lacked in flavor.  Regardless, this will be our spot to stay if we need an overnight in Ft. Worth!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised when I arrived at the hotel.  The photos on the website do not bring justice to it's actual beauty.  Entering the lobby you immediately feel relaxed (cool colors greet you).   The staff was amazing and check in was quick (we arrived late so this was much appreciated).  The room itself was spacious and modern.  The bed was comfortable and pillows easy to mold for comfort.  The show has a digital thermostat and you can adjust the water temperature with ease to your liking  There is a microwave, mini refrigerator, and a mini Keurig all in the suite.  The only disappointment to the stay was the complimentary breakfast, which lacked in flavor.  Regardless, this will be our spot to stay if we need an overnight in Ft. Worth!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r541482608-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -388,9 +622,6 @@
     <t>I️ have been coming here every week for the last 8 weeks and every stay is exceptional. Brechelle really goes out of her way to take care of all my needs. She is the reason I️ keep coming back! You rock, Brechelle!</t>
   </si>
   <si>
-    <t>Arash S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r541423504-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -403,12 +634,6 @@
     <t>I stay with Marriot every week for work and I always get good service but after the amazing service I received in Fossil Creek I decided for the first time to write a review.  The Hotel is a beautiful property but Brechelle was absolutely amazing with taking care of a couple concerns of mine.  Its been a long time since I've had someone go above and beyond in their customer service with an amazing attitude.  The girl that runs the bar (Christian) was also the sweetest person I've ever met.  I highly recommend this property it deserves more than 5 stars.</t>
   </si>
   <si>
-    <t>November 2017</t>
-  </si>
-  <si>
-    <t>spyzep</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r541187938-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -424,7 +649,34 @@
     <t>I am relocating to the Dallas / Ft. Worth area and I have been staying at this location for several months - typically four nights a week.  The staff is exceptional; they great me by my name every stay, look out for my every little need and make me feel especially valued as a customer.  The rooms are fantastic, the price is right and the location is excellent.......why would I go anywhere else!</t>
   </si>
   <si>
-    <t>BSorrow</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r541142855-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>541142855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantastic Hotel </t>
+  </si>
+  <si>
+    <t>I would give this hotel 10 stars!! The staff was very accommodating and friendly from the time I arrived to the time I left. The hotel is clean and the corporate apt is a dream. I loved everything about this hotel and would defintely recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r540933636-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>540933636</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Another week in Fort Worth</t>
+  </si>
+  <si>
+    <t>I have been traveling to Fort worth weekly for 6.5 years and have stay in different hotels while I am there.  About a year ago I discovered this hotel and only stay there now.  The hotel is modern, bright and also has a bar that also serves light food.  The rooms are like the lobby in that they are modern, bright and comfortable for work and sleep.  The staff is the best of any hotel I have stayed in Fort Worth.  They always greet you when you walk in the door by name, always pleasant and go out of there way to help you with any request you may have.  Geneva is the best of the best!  Always smiling and making you feel welcome.They have great equipment in their work out room which is large and open.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been traveling to Fort worth weekly for 6.5 years and have stay in different hotels while I am there.  About a year ago I discovered this hotel and only stay there now.  The hotel is modern, bright and also has a bar that also serves light food.  The rooms are like the lobby in that they are modern, bright and comfortable for work and sleep.  The staff is the best of any hotel I have stayed in Fort Worth.  They always greet you when you walk in the door by name, always pleasant and go out of there way to help you with any request you may have.  Geneva is the best of the best!  Always smiling and making you feel welcome.They have great equipment in their work out room which is large and open.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r537375255-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -445,9 +697,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t>Jim K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r535788294-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -463,12 +712,6 @@
     <t>Room was very clean. Well-kept property. Friendly, customer-oriented staff. Had only been in the room a few minutes when a call came in from the front desk asking if the room met our expectations. We will definitely stay here again!</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>dawnguthrie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r535231614-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -484,7 +727,49 @@
     <t>We went down for a wedding and stayed here 4 days. The entire staff from front desk to housekeeping were so friendly. The room was clean and one of the largest rooms we’ve ever stayed in. The breakfast was plentiful and changed from the weekend menu to a weekday menu. Must say I liked the weekday menu better because it was even more varied. There was cookies one night and cupcakes the next night for an evening snack. When we go back we will make it a point to stay here again!!!</t>
   </si>
   <si>
-    <t>jamlewis</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r522977501-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>522977501</t>
+  </si>
+  <si>
+    <t>09/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exceptional Fort Worth Stay </t>
+  </si>
+  <si>
+    <t>Arrived here on a Friday afternoon and used the Marriott app to check in advance. I was quickly greeted and given my room key as well as offered a baked cookie which made for a tasty arrival. The hotel is very luxurious and modern for its time. The room was very clean, spacious and modern. The wet bar was hidden behind cabinets which is a first at a Marriott from my experience, spacious couch, comfortable bed and specious bathroom. The breakfast offered cereal, eggs, sausage and potato skillet, bacon, home made waffles, oatmeal and pastries typically found in any SpringHill Suite. Overall, exceptional guest service, excellent value and was even recognized as a Silver Marriott Member given a complimentary water bottle and cookies. I will defiantly return if ever in the Fort Worth area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Arrived here on a Friday afternoon and used the Marriott app to check in advance. I was quickly greeted and given my room key as well as offered a baked cookie which made for a tasty arrival. The hotel is very luxurious and modern for its time. The room was very clean, spacious and modern. The wet bar was hidden behind cabinets which is a first at a Marriott from my experience, spacious couch, comfortable bed and specious bathroom. The breakfast offered cereal, eggs, sausage and potato skillet, bacon, home made waffles, oatmeal and pastries typically found in any SpringHill Suite. Overall, exceptional guest service, excellent value and was even recognized as a Silver Marriott Member given a complimentary water bottle and cookies. I will defiantly return if ever in the Fort Worth area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r510619899-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>510619899</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Hits and Misses</t>
+  </si>
+  <si>
+    <t>4 night stay.Convenient location, but like many have mentioned, it is close to the freeway and you will get the occasional truck breaking and car honking. THE HITS: New building - it was a very clean building and it smelled great everywhere. Soft-close hinges on the dresser doors and closet doors and bathroom sliding door (but not on the toilet). Shower had a digital thermometer telling you how hot or cold the water was. Family-friendly - miniature golf putting green in the back, porch swing nest seats, nice size pool with hot tub. Pool is handicap friendly with a motorized seat for those who are not able to get into the pool without assistance. Pool table in the lobby area.The Misses: No AC in the elevator - it was stuffy. No ventilation in the bathrooms. The bathroom door was a sliding fogged glass with a wood frame - horrible if you have other people in the room sleeping and someone goes to use the bathroom. At least install dimming lights or recess lighting in the bathroom so it's not like turning on the sun in the middle of the night. Bathroom door frame had nail holes throughout, as if they made a mistake installing it and had to undo it. Overall, not bad for the price. Would I stay here again? I would probably look elsewhere first.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Tammy V, General Manager at SpringHill Suites Fort Worth Fossil Creek, responded to this reviewResponded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>4 night stay.Convenient location, but like many have mentioned, it is close to the freeway and you will get the occasional truck breaking and car honking. THE HITS: New building - it was a very clean building and it smelled great everywhere. Soft-close hinges on the dresser doors and closet doors and bathroom sliding door (but not on the toilet). Shower had a digital thermometer telling you how hot or cold the water was. Family-friendly - miniature golf putting green in the back, porch swing nest seats, nice size pool with hot tub. Pool is handicap friendly with a motorized seat for those who are not able to get into the pool without assistance. Pool table in the lobby area.The Misses: No AC in the elevator - it was stuffy. No ventilation in the bathrooms. The bathroom door was a sliding fogged glass with a wood frame - horrible if you have other people in the room sleeping and someone goes to use the bathroom. At least install dimming lights or recess lighting in the bathroom so it's not like turning on the sun in the middle of the night. Bathroom door frame had nail holes throughout, as if they made a mistake installing it and had to undo it. Overall, not bad for the price. Would I stay here again? I would probably look elsewhere first.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r508026972-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -502,9 +787,6 @@
     <t>The property is new and well kept. Very clean.  Nice upscale amenities and outdoor recreational space. Staff was very nice and accommodating.  Relatively convenient to nearby dining.  Unfortunately the way it is positioned on their parcel of land the freeway noise is unavoidable, and I would not stay there again because of it. I had to use earplugs due to the road noise, and I had a low floor room facing another hotel , which was as good as it could get.  I can usually mitigate the road noise with the AC, but their AC is ducted and not a typical hotel AC, so there was little to no noise when the AC was in use.My comment to the developer- why put such a nice building with balconies etc RIGHT ON A MAJOR FREEWAY?  At least orient the building so one side is not exposed to the freeway.  Or as an alternative install better glass or even noise dampening curtains/window coverings.MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>Tammy V, General Manager at SpringHill Suites Fort Worth Fossil Creek, responded to this reviewResponded August 3, 2017</t>
   </si>
   <si>
@@ -514,9 +796,6 @@
     <t>The property is new and well kept. Very clean.  Nice upscale amenities and outdoor recreational space. Staff was very nice and accommodating.  Relatively convenient to nearby dining.  Unfortunately the way it is positioned on their parcel of land the freeway noise is unavoidable, and I would not stay there again because of it. I had to use earplugs due to the road noise, and I had a low floor room facing another hotel , which was as good as it could get.  I can usually mitigate the road noise with the AC, but their AC is ducted and not a typical hotel AC, so there was little to no noise when the AC was in use.My comment to the developer- why put such a nice building with balconies etc RIGHT ON A MAJOR FREEWAY?  At least orient the building so one side is not exposed to the freeway.  Or as an alternative install better glass or even noise dampening curtains/window coverings.More</t>
   </si>
   <si>
-    <t>Kristin D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r503552749-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -538,9 +817,6 @@
     <t>We had such a great stay at SpringHill Suites.  The hotel is very new and modern.  The entire hotel is clean and well cared for.  The complimentary breakfast is fantastic.  Coffee was good.  There is something for everyone at breakfast- chobani yogurts, granola, cereal, bagels, pastries, fruit, oatmeal, omelets, bacon, croissants...the list goes on and on.Staff was beyond helpful and professional. Very polite and accommodating.  Check in and check out were very quick and easy.Room was lovely.  Bed was very comfortable.  Bathroom was clean and spacious with a very modern shower. It exceeded my expectations.  Hotel was quiet, easy to sleep.Gym and pool are clean and well cared for.  Hot tub was HOT and a nice relaxing experience.  I highly recommend staying here.  We were sad to check out.  My only suggestion to management would be to add another washing machine and dryer to the laundry room.  There was quite a line waiting to use the machines, we were awake until past midnight before ours finished, and there was a gentleman after us.More</t>
   </si>
   <si>
-    <t>Eric K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r502256673-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -556,7 +832,43 @@
     <t>It's a relatively new hotel, so the accommodations were everything I could ask for and more.  It was the employee's professionalism that will make sure I get back to visit again.  Everyone was super helpful and understanding when I arrived to check in and there was a line of about ten people waiting.  While all their stations were full (getting people through quickly), someone made sure to hand out cold bottled water to anyone coming in from the super hot day.  Thank you for all that and more!</t>
   </si>
   <si>
-    <t>Mark J</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r497469103-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>497469103</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Beautiful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very modern and stylish. Clean. The room was spacious and quiet. My daughter said the sofa bed was comfy. I liked the set up of the room with the separate living area. Would definitely stay here again. Breakfast is usual fare, tho they did have vegetarian sausage. </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r488849025-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>488849025</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modern elegance </t>
+  </si>
+  <si>
+    <t>We stayed here for a bachelorette party. The rooms are beautiful and modern. The staff was very sweet and helpful. We were also very excited that there was a shuttle that took us to and from the Stockyards. That saved us a ton. We loved this hotel and would go back in a hearbeat.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r486090962-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -574,12 +886,6 @@
     <t xml:space="preserve">We stayed here as a family on our way to the coast. Loved the place! The rooms were big and spacious and there was room for all the kids. The lobby and patio areas are the shinning light to this hotel. The ability to go out and sit while the kids play on the putting green was great. The lobby area had games to play as well. What a relaxing and welcoming place. Would stay here again. The breakfast we good as well. It seems the hotel was very well ran. </t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t>Lindsay Z</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r484796761-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -598,9 +904,6 @@
     <t>I was in town for a wedding with my Mother and Sister for a long weekend and we had the joy of staying at this hotel.  While we had terrible trouble getting around the area with all the construction, the hotel was the redeeming aspect of our travels.  The staff was friendly, polite, and helpful.  The complimentary breakfast was so good.  The room was everything we needed and then some. I had to do some work while there and found it easy to work from the mid-room desk and close the glass to shut off my sister and mother watching TV on the other side.  The back and front patios were so pleasant to utilize for happy hour and for breakfast I enjoyed our visit and if I ever find myself in that terrible area again, I would love to stay there again.More</t>
   </si>
   <si>
-    <t>WiMomwithteens</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r484785494-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -613,7 +916,37 @@
     <t xml:space="preserve">This new hotel is very nice.  The shower is amazing!!!  The beds are comfy, and you don't hear highway noise.  The fitness room has a decent amount of equipment, and the outdoor area is very nice as well.  The only drawback while we were there was the highway construction- once we found an alternative route to the TCU area, life improved.  </t>
   </si>
   <si>
-    <t>hsha88</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r480521840-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>480521840</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Clean - Location - Customer Service</t>
+  </si>
+  <si>
+    <t>First time to stay here; will be back whenever I'm in the area.  If I could give this a higher rating, I would.   Loved the location, very helpful staff, upgraded my room, great breakfast, even with bacon and eggs, comfortable bed.  The AC system worked great, and didn't go on and off and wake you up all night.  We needed to get into our room early to get ready for a wedding, and they put our room on a priority to prepare it for us.  Really appreciated their help, as well as friendliness upon check-in.  I can't recommend this high enough.  Can't go wrong here.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r474333111-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>474333111</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Very pleased</t>
+  </si>
+  <si>
+    <t>Bed was soft, no strange odors, plenty of towels and pillows. Shower was big, water pressure was good, we 5th floor room. Staff was very courteous. They actually like their job, or at least seem to :) tv was nice sized. The place was very modern. I'd definitely stay there again.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r472703089-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -634,9 +967,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>OWLTOBIN4</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r471184486-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -655,9 +985,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t>mee338</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r470324590-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -676,7 +1003,34 @@
     <t>This is a GREAT hotel.  Only about a year old so everything is new.  The location is really good as right next to the highway for eas yaccess.  Airport aout 20 minutes, Stockyards about 15 minutes.  The breakfast is large, and the ladies do a GREAT job at keeping it full and tasty.  They have a night bar open for drinks and an open lounge. Our favorite part was that there were two outdoor lounges to sit at and work with plenty of seating (20 out front, 40+ out back).  Sat out there for hours late afternoon into evening working on the computers and just talking.  The rooms are typical but they have more upgrades in style.  The front desk personnel were really fun and helpful with directions to local eating places and always asking us when we returned about our adventure and what we bought.  Kelli and Lluvia were especially nice to us. Have visited FTW about 2 dozen times but now like this hotel the best for location, quality, personnel, ammenities and price.  Will make this out new stay.More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r469647845-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>469647845</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>Would have been 5/5 except for rude front desk attendant</t>
+  </si>
+  <si>
+    <t>Room was very clean and spacious. The lobby/bar/outside patio are is great even for our kids. We ate breakfast on the patio and there was also a mini putting green which was fun. For the price, I think the hotel was worth it! My only complaint would be the front desk. I've NEVER encountered such a rude front desk attendant. I wish I would have caught her name. Blonde hair, likely mid 30s. I had multiple encounters with her and she was completely rude, and acted like I was bothering her. When we checked in at around 5:15 (check-in is at 4), she told us our room isn't ready. I understand things happen but she gave no apology and she was so rude about it as if it was my fault my room wasn't ready. Her attitude was absolutely unacceptable. Its too bad because I would have given a 5/5 review if it weren't for her.MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was very clean and spacious. The lobby/bar/outside patio are is great even for our kids. We ate breakfast on the patio and there was also a mini putting green which was fun. For the price, I think the hotel was worth it! My only complaint would be the front desk. I've NEVER encountered such a rude front desk attendant. I wish I would have caught her name. Blonde hair, likely mid 30s. I had multiple encounters with her and she was completely rude, and acted like I was bothering her. When we checked in at around 5:15 (check-in is at 4), she told us our room isn't ready. I understand things happen but she gave no apology and she was so rude about it as if it was my fault my room wasn't ready. Her attitude was absolutely unacceptable. Its too bad because I would have given a 5/5 review if it weren't for her.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r467428431-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>467428431</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel from outside to inside is beautiful. They have an indoor swimming pool which is awesome when the temperature outside are in the 30s. Free breakfast is always great but I wish they didn't close it so early. It ends at 9:30am instead of 10 or 10:30 at other hotels. The rooms where very big and spacious. Comfortable beds and clean shower. Everything you can expect from a Marriott. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r464182226-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -691,10 +1045,7 @@
     <t xml:space="preserve">Nice clean hotel </t>
   </si>
   <si>
-    <t>Nice and courtesy people that worked  there this was our second stay very clean . Only thing that I would suggest is expand breakfast ☺️we really like the area , even being right next to the freeway we did not have any noise pollution which is great for sleeping. I would suggest sturdy pillows also but the stay was good .</t>
-  </si>
-  <si>
-    <t>BibhuRath</t>
+    <t>Nice and courtesy people that worked  there this was our second stay very clean . Only thing that I would suggest is expand breakfast ️we really like the area , even being right next to the freeway we did not have any noise pollution which is great for sleeping. I would suggest sturdy pillows also but the stay was good .</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r458745670-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -715,9 +1066,6 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t>Dawn C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r456258851-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -733,7 +1081,54 @@
     <t>Booked this hotel while we were in town for a gymnastics meet.  I will definitely book and stay again.  Hotel is very clean.  Staff was very friendly and helpful.  Our room was spacious.  Breakfast was good.  The pool and workout facility were nice.  We have no complaints about this hotel.</t>
   </si>
   <si>
-    <t>Debster01</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r456053529-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>456053529</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t>Almost perfection in a hotel</t>
+  </si>
+  <si>
+    <t>Booked this hotel when trying to locate a place to stay for me and my family for a local weekend away to go to the Fort Worth stock show and a few other locales in Fort Worth.  I booked it because it was a newer hotel and had the amenities we were looking for, for a very reasonable price.  
+I was a little miffed at check-in time when I was given a key to a 2nd floor room.  I asked about why I didn't get a high floor as requested in my rewards reservation.  They explained that that was all they had at check-in time, but I kind of expected a high floor room to be "saved" when I booked the reservation.  I've never had this issue at any other property, so not sure why here.  If there was a particular time I should of checked in to affect my ability of getting a high floor room, I certainly was not informed of that.  So for two nights we got to put up with the noise from those above us who were up half the night.
+Breakfast Saturday morning was delicious, aside from the bacon bin which they could not keep filled.  Frustrating when we were trying to get out the door by a certain time and wanted bacon before we did.  Had the same problem Sunday morning.  Aside from that, it was one of the better hot complimentary breakfasts...Booked this hotel when trying to locate a place to stay for me and my family for a local weekend away to go to the Fort Worth stock show and a few other locales in Fort Worth.  I booked it because it was a newer hotel and had the amenities we were looking for, for a very reasonable price.  I was a little miffed at check-in time when I was given a key to a 2nd floor room.  I asked about why I didn't get a high floor as requested in my rewards reservation.  They explained that that was all they had at check-in time, but I kind of expected a high floor room to be "saved" when I booked the reservation.  I've never had this issue at any other property, so not sure why here.  If there was a particular time I should of checked in to affect my ability of getting a high floor room, I certainly was not informed of that.  So for two nights we got to put up with the noise from those above us who were up half the night.Breakfast Saturday morning was delicious, aside from the bacon bin which they could not keep filled.  Frustrating when we were trying to get out the door by a certain time and wanted bacon before we did.  Had the same problem Sunday morning.  Aside from that, it was one of the better hot complimentary breakfasts we've had anywhere else.The room was perfection.  A couple of oddities... I assumed initially that they didn't have a black-out curtain.  Turns out the chain for it was on the far end of the curtain area, but we couldn't see it when we had the closet door open.  And it's not a traditional black-out curtain but rather something that comes down from the top of the window.  Classy.  The second oddity is the thermostat.  Due to its modern-ness, it makes zero noise so you can't tell when/if it is on.  It worked fine after we figured out how to work it and how to get the temp like we wanted.The hot tub was awesome.  Large enough for us to enjoy it.  The pool water was too cold for our taste, so we skipped that.  Would be nice to have a clock on the wall in the pool area.We enjoyed the bar area.  I had some drinks while we ordered some snack food. The bartender was awesome, very attentive and friendly.We also enjoyed the fire pit on the back porch outside the bar area.  It was quite cold, so that was nice.  A bit scary when the wind would blow, maybe it needs a wind guard or something.  Especially if small children are wandering near.The room shower was awesome.  The water was the hottest I've ever seen, with even a temp readout on the knob.  The shower head was a bit leaky, contributing to a small hole forming in the corner of the shower ceiling.  So that will need some work soon in room 209.I especially enjoyed the little area where someone can work on the computer yet shut the sliding window to allow those in the bed to sleep without having to see the light.  The TV was large and awesome.We do plan on returning to this hotel very soon.  For the room, price, food, bar, and hot tub, very well worth the stay.  We did fight the construction in the area for all of our outings, but that isn't the hotels fault.MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked this hotel when trying to locate a place to stay for me and my family for a local weekend away to go to the Fort Worth stock show and a few other locales in Fort Worth.  I booked it because it was a newer hotel and had the amenities we were looking for, for a very reasonable price.  
+I was a little miffed at check-in time when I was given a key to a 2nd floor room.  I asked about why I didn't get a high floor as requested in my rewards reservation.  They explained that that was all they had at check-in time, but I kind of expected a high floor room to be "saved" when I booked the reservation.  I've never had this issue at any other property, so not sure why here.  If there was a particular time I should of checked in to affect my ability of getting a high floor room, I certainly was not informed of that.  So for two nights we got to put up with the noise from those above us who were up half the night.
+Breakfast Saturday morning was delicious, aside from the bacon bin which they could not keep filled.  Frustrating when we were trying to get out the door by a certain time and wanted bacon before we did.  Had the same problem Sunday morning.  Aside from that, it was one of the better hot complimentary breakfasts...Booked this hotel when trying to locate a place to stay for me and my family for a local weekend away to go to the Fort Worth stock show and a few other locales in Fort Worth.  I booked it because it was a newer hotel and had the amenities we were looking for, for a very reasonable price.  I was a little miffed at check-in time when I was given a key to a 2nd floor room.  I asked about why I didn't get a high floor as requested in my rewards reservation.  They explained that that was all they had at check-in time, but I kind of expected a high floor room to be "saved" when I booked the reservation.  I've never had this issue at any other property, so not sure why here.  If there was a particular time I should of checked in to affect my ability of getting a high floor room, I certainly was not informed of that.  So for two nights we got to put up with the noise from those above us who were up half the night.Breakfast Saturday morning was delicious, aside from the bacon bin which they could not keep filled.  Frustrating when we were trying to get out the door by a certain time and wanted bacon before we did.  Had the same problem Sunday morning.  Aside from that, it was one of the better hot complimentary breakfasts we've had anywhere else.The room was perfection.  A couple of oddities... I assumed initially that they didn't have a black-out curtain.  Turns out the chain for it was on the far end of the curtain area, but we couldn't see it when we had the closet door open.  And it's not a traditional black-out curtain but rather something that comes down from the top of the window.  Classy.  The second oddity is the thermostat.  Due to its modern-ness, it makes zero noise so you can't tell when/if it is on.  It worked fine after we figured out how to work it and how to get the temp like we wanted.The hot tub was awesome.  Large enough for us to enjoy it.  The pool water was too cold for our taste, so we skipped that.  Would be nice to have a clock on the wall in the pool area.We enjoyed the bar area.  I had some drinks while we ordered some snack food. The bartender was awesome, very attentive and friendly.We also enjoyed the fire pit on the back porch outside the bar area.  It was quite cold, so that was nice.  A bit scary when the wind would blow, maybe it needs a wind guard or something.  Especially if small children are wandering near.The room shower was awesome.  The water was the hottest I've ever seen, with even a temp readout on the knob.  The shower head was a bit leaky, contributing to a small hole forming in the corner of the shower ceiling.  So that will need some work soon in room 209.I especially enjoyed the little area where someone can work on the computer yet shut the sliding window to allow those in the bed to sleep without having to see the light.  The TV was large and awesome.We do plan on returning to this hotel very soon.  For the room, price, food, bar, and hot tub, very well worth the stay.  We did fight the construction in the area for all of our outings, but that isn't the hotels fault.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r453900336-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>453900336</t>
+  </si>
+  <si>
+    <t>01/21/2017</t>
+  </si>
+  <si>
+    <t>New, Trendy, contemporary BUT...</t>
+  </si>
+  <si>
+    <t>Great decor and newness is outstanding but with that comes a price. For the casual traveler this will probably be outstanding but for the business travel aka Platinum elite member such as myself for Marriott, there's some quirky things hard to overlook. 
+Mainly this is kind of in the middle of nowhere beneath a noisy overpass. Driving here at night appears as somewhat of a mirage. You can see it but GPS will struggle to take you to it. It a darkened corporate office park with nothing in walking distance. 
+Inside the nicely appointed room is where the wheels fall off for me. Large cumbersome sliding bathroom door is awkward. Most annoying is the fact that Marriott has chosen to go "extreme Green" where the motion sensing AC controls shut off with no movement in the room. The fan is so audibly quiet you can't tell if the thing is working or not. So constantly moving around waving my hands in the air to keep the AC operating. After that hurdle, switch the lights out and the real problems start. The super annoying blinking light on this thermostat that illuminates the entire room like I'm sleeping in a some weird space pod. To get sleep I dug deep into the Magyver play book and stacked sofa cushions on end like a large Jenga puzzle and wedged the HBO guide over the flashing light. Crazy! What started out as a new...Great decor and newness is outstanding but with that comes a price. For the casual traveler this will probably be outstanding but for the business travel aka Platinum elite member such as myself for Marriott, there's some quirky things hard to overlook. Mainly this is kind of in the middle of nowhere beneath a noisy overpass. Driving here at night appears as somewhat of a mirage. You can see it but GPS will struggle to take you to it. It a darkened corporate office park with nothing in walking distance. Inside the nicely appointed room is where the wheels fall off for me. Large cumbersome sliding bathroom door is awkward. Most annoying is the fact that Marriott has chosen to go "extreme Green" where the motion sensing AC controls shut off with no movement in the room. The fan is so audibly quiet you can't tell if the thing is working or not. So constantly moving around waving my hands in the air to keep the AC operating. After that hurdle, switch the lights out and the real problems start. The super annoying blinking light on this thermostat that illuminates the entire room like I'm sleeping in a some weird space pod. To get sleep I dug deep into the Magyver play book and stacked sofa cushions on end like a large Jenga puzzle and wedged the HBO guide over the flashing light. Crazy! What started out as a new clean spacious night stay over ended with a major let down. Front desk was nice though. MoreShow less</t>
+  </si>
+  <si>
+    <t>Tammy V, General Manager at SpringHill Suites Fort Worth Fossil Creek, responded to this reviewResponded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Great decor and newness is outstanding but with that comes a price. For the casual traveler this will probably be outstanding but for the business travel aka Platinum elite member such as myself for Marriott, there's some quirky things hard to overlook. 
+Mainly this is kind of in the middle of nowhere beneath a noisy overpass. Driving here at night appears as somewhat of a mirage. You can see it but GPS will struggle to take you to it. It a darkened corporate office park with nothing in walking distance. 
+Inside the nicely appointed room is where the wheels fall off for me. Large cumbersome sliding bathroom door is awkward. Most annoying is the fact that Marriott has chosen to go "extreme Green" where the motion sensing AC controls shut off with no movement in the room. The fan is so audibly quiet you can't tell if the thing is working or not. So constantly moving around waving my hands in the air to keep the AC operating. After that hurdle, switch the lights out and the real problems start. The super annoying blinking light on this thermostat that illuminates the entire room like I'm sleeping in a some weird space pod. To get sleep I dug deep into the Magyver play book and stacked sofa cushions on end like a large Jenga puzzle and wedged the HBO guide over the flashing light. Crazy! What started out as a new...Great decor and newness is outstanding but with that comes a price. For the casual traveler this will probably be outstanding but for the business travel aka Platinum elite member such as myself for Marriott, there's some quirky things hard to overlook. Mainly this is kind of in the middle of nowhere beneath a noisy overpass. Driving here at night appears as somewhat of a mirage. You can see it but GPS will struggle to take you to it. It a darkened corporate office park with nothing in walking distance. Inside the nicely appointed room is where the wheels fall off for me. Large cumbersome sliding bathroom door is awkward. Most annoying is the fact that Marriott has chosen to go "extreme Green" where the motion sensing AC controls shut off with no movement in the room. The fan is so audibly quiet you can't tell if the thing is working or not. So constantly moving around waving my hands in the air to keep the AC operating. After that hurdle, switch the lights out and the real problems start. The super annoying blinking light on this thermostat that illuminates the entire room like I'm sleeping in a some weird space pod. To get sleep I dug deep into the Magyver play book and stacked sofa cushions on end like a large Jenga puzzle and wedged the HBO guide over the flashing light. Crazy! What started out as a new clean spacious night stay over ended with a major let down. Front desk was nice though. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r451784086-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -754,9 +1149,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>Yilmaz A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r451487234-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -772,9 +1164,6 @@
     <t>What a hotel! I stayed at some expensive hotels but this one is as good as those high end hotels. Just to heck of it, you should just walk-in and check the brand spanking new, contemporary lobby and the rooms to see where hotel industry is going forward. Room, service and breakfast were also exceptional.</t>
   </si>
   <si>
-    <t>Wiringguy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r446931252-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -790,10 +1179,37 @@
     <t xml:space="preserve">This is a pretty new property that is very modern and has great suites. Our room had a comfortable king bed with terrific pillows, a great bathroom, Plenty of storage, large flatscreen tv and comfortable living room area.  The outside space had a great large fire pit and we spent a couple hours outside just enjoying the property. This is a perfect place to stay. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>audrasmith78</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r440011966-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>440011966</t>
+  </si>
+  <si>
+    <t>11/25/2016</t>
+  </si>
+  <si>
+    <t>Excellent SHS</t>
+  </si>
+  <si>
+    <t>I stay in hotels about 150 nights a year, about 50 of those with Marriott. I assume this the newest iteration of SHS that Marriot has developed- this is a huge advancement over the SHS that have been built up until now. The overall feel is still modern but not the cheap IKEA knockoff modern of before, but well done with legit providers of modern furniture, hardware, light switches, etc.Very clean, rooms are large. Common areas nice, including outdoor seating area with firepit and also a putting green. Overall feel more a modern boutique hotel than a SHS.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r438331898-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>438331898</t>
+  </si>
+  <si>
+    <t>11/18/2016</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>The hotel is brand new. Nice decor. Very pleasant and friendly staff. The beds were comfortable enough, nothing to write home about but ok. It is a pleasant place to stay. I did notice that the rooms already felt tired. some of the hardware in the room was already broken. This being such a new hotel I would not have expected so much broken hardware. Several things, mostly in the bathroom were broken. It kind of feels cheaply built with cheap hardware. But overall it is a nice place and I will stay there again.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r437206394-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -812,9 +1228,6 @@
   </si>
   <si>
     <t>October 2016</t>
-  </si>
-  <si>
-    <t>NanaTX1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r436151867-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -834,9 +1247,6 @@
 We in no way felt this was an isolated incident and felt very sure that any chance given to make more money from a preferred client would be jumped at with no remorse. Shameful way to do business. We will not return and will be sure to tell our friends and...We had a reservation and stayed at this hotel last week. My daughter and son-in-law reserved the two bedroom suite/apartment so that we, along with my son-in-law's parents could all be together for a vacation. We grandparents each reserved suites, as well. At basically the last minute, the hotel decided they could make more money off of a corporate client who decided they wanted the room that my daughter had already booked and so they gave it to them instead. What a dirty way to treat your customers. Sorry we wouldn't have made you the same money that your corporate clients would, but a reservation is a reservation and to cancel it in such a way is a terrible way to treat your guests. The attitudes from management were unhelpful and dismissive. While my daughter's family's consolation room was discounted, it gave us nowhere to gather together and completely fouled up our plans that we had carefully made well in advance with a confirmed reservation. The cursory note from management on my daughter's review below does nothing to make up for what should have been a carefree family gathering. We in no way felt this was an isolated incident and felt very sure that any chance given to make more money from a preferred client would be jumped at with no remorse. Shameful way to do business. We will not return and will be sure to tell our friends and family who visit to stay away from this property.MoreShow less</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
     <t>Tammy V, General Manager at SpringHill Suites Fort Worth Fossil Creek, responded to this reviewResponded November 14, 2016</t>
   </si>
   <si>
@@ -848,9 +1258,6 @@
 We in no way felt this was an isolated incident and felt very sure that any chance given to make more money from a preferred client would be jumped at with no remorse. Shameful way to do business. We will not return and will be sure to tell our friends and...We had a reservation and stayed at this hotel last week. My daughter and son-in-law reserved the two bedroom suite/apartment so that we, along with my son-in-law's parents could all be together for a vacation. We grandparents each reserved suites, as well. At basically the last minute, the hotel decided they could make more money off of a corporate client who decided they wanted the room that my daughter had already booked and so they gave it to them instead. What a dirty way to treat your customers. Sorry we wouldn't have made you the same money that your corporate clients would, but a reservation is a reservation and to cancel it in such a way is a terrible way to treat your guests. The attitudes from management were unhelpful and dismissive. While my daughter's family's consolation room was discounted, it gave us nowhere to gather together and completely fouled up our plans that we had carefully made well in advance with a confirmed reservation. The cursory note from management on my daughter's review below does nothing to make up for what should have been a carefree family gathering. We in no way felt this was an isolated incident and felt very sure that any chance given to make more money from a preferred client would be jumped at with no remorse. Shameful way to do business. We will not return and will be sure to tell our friends and family who visit to stay away from this property.More</t>
   </si>
   <si>
-    <t>Patrick K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r435939459-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -866,7 +1273,50 @@
     <t>I have stayed for business for almost 6 months now, it feels like 2nd homeThe staff and management would do any thing to make your stay enjoyable in a very professional manner I highly recommend this hotel for your next stay</t>
   </si>
   <si>
-    <t>andyswagner</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r435493312-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>435493312</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Bumped our reservation for a corporate client</t>
+  </si>
+  <si>
+    <t>One day prior to our scheduled arrival, Springhill Suites Fossil Creek sent us an email (not even the courtesy of a phone call) to let us know that they were letting their corporate client continue their stay in the apartment we had reserved weeks prior, and that we were, basically, out of luck. While they offered us a discount/comp on connecting rooms, the fact is - if connecting rooms had met our needs, that is what we would have booked to begin with. In discussions with management, they acted like we should appreciate that they did us some favor by offering us the other rooms, and by not waiting until our arrival to let us know they no longer had our room for us. None of these did anything to make up for them ruining what we had carefully planned for our staycation. We were left with no time to make alternate plans and felt completely unvalued as customers and guests of the hotel. 
+While I am sure that their corporate client was better for them to please financially, it does little to benefit families that may choose to stay with them. If you have a reservation, even the simplest of common courtesy would require that you honor it. 
+I could say plenty about what a beautiful new building it is and how kind the front desk staff was, but unfortunately, the actions and attitudes of management have left us...One day prior to our scheduled arrival, Springhill Suites Fossil Creek sent us an email (not even the courtesy of a phone call) to let us know that they were letting their corporate client continue their stay in the apartment we had reserved weeks prior, and that we were, basically, out of luck. While they offered us a discount/comp on connecting rooms, the fact is - if connecting rooms had met our needs, that is what we would have booked to begin with. In discussions with management, they acted like we should appreciate that they did us some favor by offering us the other rooms, and by not waiting until our arrival to let us know they no longer had our room for us. None of these did anything to make up for them ruining what we had carefully planned for our staycation. We were left with no time to make alternate plans and felt completely unvalued as customers and guests of the hotel. While I am sure that their corporate client was better for them to please financially, it does little to benefit families that may choose to stay with them. If you have a reservation, even the simplest of common courtesy would require that you honor it. I could say plenty about what a beautiful new building it is and how kind the front desk staff was, but unfortunately, the actions and attitudes of management have left us stating that we would never consider staying at this hotel and would recommend that anyone else choose another property. If reservations are only guaranteed for your preferred clients, you should really make that clear when people call or state it on your website. Something along the lines of "Your room is reserved... unless we get a better deal with a corporate client" would at least be more honest. (PS to families traveling with small children who take baths - most rooms only have showers, not tubs)MoreShow less</t>
+  </si>
+  <si>
+    <t>Tammy V, General Manager at SpringHill Suites Fort Worth Fossil Creek, responded to this reviewResponded November 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2016</t>
+  </si>
+  <si>
+    <t>One day prior to our scheduled arrival, Springhill Suites Fossil Creek sent us an email (not even the courtesy of a phone call) to let us know that they were letting their corporate client continue their stay in the apartment we had reserved weeks prior, and that we were, basically, out of luck. While they offered us a discount/comp on connecting rooms, the fact is - if connecting rooms had met our needs, that is what we would have booked to begin with. In discussions with management, they acted like we should appreciate that they did us some favor by offering us the other rooms, and by not waiting until our arrival to let us know they no longer had our room for us. None of these did anything to make up for them ruining what we had carefully planned for our staycation. We were left with no time to make alternate plans and felt completely unvalued as customers and guests of the hotel. 
+While I am sure that their corporate client was better for them to please financially, it does little to benefit families that may choose to stay with them. If you have a reservation, even the simplest of common courtesy would require that you honor it. 
+I could say plenty about what a beautiful new building it is and how kind the front desk staff was, but unfortunately, the actions and attitudes of management have left us...One day prior to our scheduled arrival, Springhill Suites Fossil Creek sent us an email (not even the courtesy of a phone call) to let us know that they were letting their corporate client continue their stay in the apartment we had reserved weeks prior, and that we were, basically, out of luck. While they offered us a discount/comp on connecting rooms, the fact is - if connecting rooms had met our needs, that is what we would have booked to begin with. In discussions with management, they acted like we should appreciate that they did us some favor by offering us the other rooms, and by not waiting until our arrival to let us know they no longer had our room for us. None of these did anything to make up for them ruining what we had carefully planned for our staycation. We were left with no time to make alternate plans and felt completely unvalued as customers and guests of the hotel. While I am sure that their corporate client was better for them to please financially, it does little to benefit families that may choose to stay with them. If you have a reservation, even the simplest of common courtesy would require that you honor it. I could say plenty about what a beautiful new building it is and how kind the front desk staff was, but unfortunately, the actions and attitudes of management have left us stating that we would never consider staying at this hotel and would recommend that anyone else choose another property. If reservations are only guaranteed for your preferred clients, you should really make that clear when people call or state it on your website. Something along the lines of "Your room is reserved... unless we get a better deal with a corporate client" would at least be more honest. (PS to families traveling with small children who take baths - most rooms only have showers, not tubs)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r434927998-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>434927998</t>
+  </si>
+  <si>
+    <t>11/05/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel, good price</t>
+  </si>
+  <si>
+    <t>I stayed here for business for nearly a month. Had a balcony room which was nice. Bar staff Christian Faith and Liz were super friendly! Same for front desk staff. Beds are comfortable, shower was bomb dot com, lets you choose the temperature of your shower. Only thing about the bathroom I hated was whatever they use to clean the tile floor was slippery to begin with, needless to say I fell one night but I survived so it's whatever. I liked that the TVs are smart TVs so you can watch Hulu and Netflix on it. Cable channels were the typical hotel cable channels, some variety. Breakfast was good but when you've been there over two weeks you get tired of it, it happens. Location was close to my work site and Uber Eats was able to deliver with no difficulties. There are many restaurants within 5 mins drive if you want to step out.The patio is nice out back by the bar, you can play put put golf or chill by the fire pit like I did most nights with coworkers.Overall I'd stay here again if I had to go back to Fort Worth again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for business for nearly a month. Had a balcony room which was nice. Bar staff Christian Faith and Liz were super friendly! Same for front desk staff. Beds are comfortable, shower was bomb dot com, lets you choose the temperature of your shower. Only thing about the bathroom I hated was whatever they use to clean the tile floor was slippery to begin with, needless to say I fell one night but I survived so it's whatever. I liked that the TVs are smart TVs so you can watch Hulu and Netflix on it. Cable channels were the typical hotel cable channels, some variety. Breakfast was good but when you've been there over two weeks you get tired of it, it happens. Location was close to my work site and Uber Eats was able to deliver with no difficulties. There are many restaurants within 5 mins drive if you want to step out.The patio is nice out back by the bar, you can play put put golf or chill by the fire pit like I did most nights with coworkers.Overall I'd stay here again if I had to go back to Fort Worth again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r432709027-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -884,9 +1334,6 @@
     <t>I've been staying at this hotel on business for over 6 months and this is a great place to stay if you find yourself in the Fossil Creek area of Fort Worth, TX. Opening this past March, the modern rooms and high tech conveniences make it easy for the road warrior to get the job done. To add to the amenities, the staff from the general manager, front desk team and housekeeping are personable, friendly and always willing to help. After 6 months, I have no trouble calling the SpringHill suites at Fossil Creek my home away from home. I highly recommend this hotel.</t>
   </si>
   <si>
-    <t>JKJB</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r430357019-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -902,9 +1349,6 @@
     <t>Beautiful and bright friendly atmosphere!Plenty of group seating areas both inside and out.  Staff is very friendly and helpful. Rooms are comfortable and designed with the digital generation in mind! Outlets everywhere!</t>
   </si>
   <si>
-    <t>rebecca c</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r427347949-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -920,7 +1364,37 @@
     <t xml:space="preserve">Very new!  Nice decor, trendy n friendly staff.  There's a bar area n an outside lounge area with relaxing sofas n chairs.  A small greens area as well.  Murals are in each room on one wall.  The suites have an expandable sofa.  Fridge n microwave.  </t>
   </si>
   <si>
-    <t>dcwrigh</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r425447660-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>425447660</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>GREAT STAY!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recently stayed here for the AR vs A&amp;M game. The hotel was very comfortable, the room was spacious, and the bathroom was awesome. The breakfast bar was good each morning. The back outdoor area was very nice and relaxing! </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r424860039-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>424860039</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay! Very clean hotel. </t>
+  </si>
+  <si>
+    <t>Loved the large rooms and walk in shower in room. Beds are so comfortable. Great outside sitting area, outdoor fireplace. Indoor pool and large hot tub. Close to shopping and downtown historical area and stock yards. Very helpful staff!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r422062039-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -938,12 +1412,6 @@
     <t>This is a new property so very clean. Love the large glassed in shower versus tub with shower curtain. Service was excellent and staff very friendly. Thought since close to freeway would be noisy and was wrong. Room extremely quiet to my surprise! Would definitely stay here again.</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
-    <t>Scott G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r415927778-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -962,9 +1430,6 @@
     <t>My wife and I took my in-laws to see USC play Alabama at the Dallas Cowboy's stadium.  Alabama dominated my USC Trojans 52-6 in the football game, which was disappointing.  What was not disappointing was our hotel.  The SpringHill Suites Fossil Creek is an exceptional place to stay.  Freeway close with no freeway sound to contend with in the rooms.  The entire facility was clean and well kept.  The front desk and hotel staff were very friendly, helpful, and informative.  Requests for extra towels were executed quickly and with a smile.  Directions to different locations were given freely and accurately.  Dinning suggestions were also spot on as to quality locations to dine.The hotel offers a buffet breakfast of eggs, bacon, toast, cereal, and drinks.  The food would do if you are in a hurry and need something quick, but not something to write home about.  All in all I would stay at this hotel again when in the Fort Worth area.More</t>
   </si>
   <si>
-    <t>Bricynt</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r412277241-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -980,7 +1445,34 @@
     <t xml:space="preserve">Hubby and I were looking to take a quick respite and decided we needed a STAYCATION. We discovered this quaint property in Ft Worth and boy was it a FIND! The hotel is pretty new in fact, rooms are excellently decorated. I am a big fan of suite hotels and this location did not disappoint. The breakfast was excellent choices - as are many SpringHill Suite locations, lots of variety, the lobby was pleasant just to hang out the parking was plentiful and most importantly the staff from the front desk to the maintenance men were top notch! We definitely will return. </t>
   </si>
   <si>
-    <t>nebgirl25</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r402269463-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>402269463</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was hear for 5 days and i loved the place. The breakfast could of been a little better, but the room. It is gorgeous a long with the hotel. Definitely the best springhill suites i have stayed. I wish all marriott that are in the same category will have the same design. I love the modern look along with the balcony and bathrooms. I just wish, as a spire elite member, they would of let me stayed in their presidential suite. but great stay, i will be back. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r398224834-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>398224834</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>I was WOWed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I expected the usual Marriott experience,  yet,  there was so much more.   I was simply amazed! This is a brand new hotel and definitely one of the nicest Marriott hotels I have seen. Very modern, very nicely decorated.   I highly recommend this hotel to anyone who is in the area.   Don't think twice, just go. </t>
+  </si>
+  <si>
+    <t>July 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r393722620-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1004,9 +1496,6 @@
     <t>We stayed here on a trip to Billy Bob's earlier in the year. The hotel was new and still not fully finished. The bar area was not complete nor open. The internet was down the entire time we stayed. Our room was clean and comfortable,but there were still some holes and unfinished tiles. We had no cell phone service in our room,due to the location of our room in the hotel. The staff was very friendly and helpful though. The grounds were clean, as was the hotel itself. The breakfast was very fresh and yummy. However there was a dance convention or something going on and there were large groups of families and kids. They were very loud and rude. We ended up taking our food to our room, after hearing them complain and treat the staff with disrespect. If we ever plan to visit Ft. Worth again we would probably stay here again.More</t>
   </si>
   <si>
-    <t>Doug78750</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r392542201-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1022,9 +1511,6 @@
     <t>This property is very nice and relatively new.  The staff, which seem in abundance, are all very pleasant and helpful.  However, two mornings in a row, at 8:00AM, I asked that my room be cleaned before I returned at 10:30AM.  I was assured that it would be done.  I was let down on both occasions.  Not a big deal, but also not a hard thing to do.  Also, when I ordered chips and salsa at the bar, the chips were stale.  Without requesting, the cost of the order was deleted from my bill.  Also, when I pointed out that my room wasn't cleaned as requested 2 days in a row, they offered me something out of their 'marketplace' store or from the bar (which I declined because that's not why I was telling them).Last point, I stayed here on points, and it is a great deal.  However my meetings are south of Fort Worth.  Be prepared for some horrific road/freeway construction between downtown FW and hotel...but not the hotel's fault.MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>Tammy V, General Manager at SpringHill Suites Fort Worth Fossil Creek, responded to this reviewResponded July 15, 2016</t>
   </si>
   <si>
@@ -1034,9 +1520,6 @@
     <t>This property is very nice and relatively new.  The staff, which seem in abundance, are all very pleasant and helpful.  However, two mornings in a row, at 8:00AM, I asked that my room be cleaned before I returned at 10:30AM.  I was assured that it would be done.  I was let down on both occasions.  Not a big deal, but also not a hard thing to do.  Also, when I ordered chips and salsa at the bar, the chips were stale.  Without requesting, the cost of the order was deleted from my bill.  Also, when I pointed out that my room wasn't cleaned as requested 2 days in a row, they offered me something out of their 'marketplace' store or from the bar (which I declined because that's not why I was telling them).Last point, I stayed here on points, and it is a great deal.  However my meetings are south of Fort Worth.  Be prepared for some horrific road/freeway construction between downtown FW and hotel...but not the hotel's fault.More</t>
   </si>
   <si>
-    <t>jdj3mhcecs6</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r392224891-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1055,7 +1538,47 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>C D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r389912962-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>389912962</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Awesome New Property</t>
+  </si>
+  <si>
+    <t>We are in the process of moving back to FW from out of state. We were in town for a weekend to get some items crossed off of our list and we stayed here on points. The hotel is less than 3 months old. The lobby, bar area and outside area are all very inviting. Beware to those of you with OCD-several things in our room were mounted crooked! Hubby said they must have been on a deadline. Comfortable rooms and above average hotel breakfast. Not close to downtown FW, but a perfect location for all things North FW!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r389211467-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>389211467</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Modern and New Hotel, Great and Safe Location, Very Good Value</t>
+  </si>
+  <si>
+    <t>We recently stayed here one night en route from Austin to Omaha.  We arrived and were impressed with the hotel immediately.  The lobby was spacious and decorated in a modern decor.
+Check-in was a little slow as there was only one receptionist and there were 4 groups waiting to check-in.  Upon checking me into the hotel, the receptionist forgot to give me my ID back.  She was nice, but not very friendly.  She seemed overwhelmed by the number of persons checking into the hotel at that time.
+The lobby contained a small bar which although we did not use, would be convenient if needed.  This bar is next to the breakfast buffet/eating area that we used the morning of our check-out.  For breakfast, they had turkey bacon, scrambled eggs, pastries, breads, and biscuits.  Assorted juices, milks, and coffees were also available.
+The hotel had a pool and a small putting green, but we did not use either.
+Our room was spacious and had a lovely view of the city.  The room was clean and well-maintained.  There was ample space for storing luggage as well as feeling comfortable in the room with 4 people.  I liked that their was a desk behind the half wall that I could work without disturbing those sleeping in the bed.  Wi-Fi was fast and free.  
+Overall, we would rate this hotel as a 4.5, but given the value for what we received, we decided on...We recently stayed here one night en route from Austin to Omaha.  We arrived and were impressed with the hotel immediately.  The lobby was spacious and decorated in a modern decor.Check-in was a little slow as there was only one receptionist and there were 4 groups waiting to check-in.  Upon checking me into the hotel, the receptionist forgot to give me my ID back.  She was nice, but not very friendly.  She seemed overwhelmed by the number of persons checking into the hotel at that time.The lobby contained a small bar which although we did not use, would be convenient if needed.  This bar is next to the breakfast buffet/eating area that we used the morning of our check-out.  For breakfast, they had turkey bacon, scrambled eggs, pastries, breads, and biscuits.  Assorted juices, milks, and coffees were also available.The hotel had a pool and a small putting green, but we did not use either.Our room was spacious and had a lovely view of the city.  The room was clean and well-maintained.  There was ample space for storing luggage as well as feeling comfortable in the room with 4 people.  I liked that their was a desk behind the half wall that I could work without disturbing those sleeping in the bed.  Wi-Fi was fast and free.  Overall, we would rate this hotel as a 4.5, but given the value for what we received, we decided on five stars.  Great hotel for a business stay or family stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We recently stayed here one night en route from Austin to Omaha.  We arrived and were impressed with the hotel immediately.  The lobby was spacious and decorated in a modern decor.
+Check-in was a little slow as there was only one receptionist and there were 4 groups waiting to check-in.  Upon checking me into the hotel, the receptionist forgot to give me my ID back.  She was nice, but not very friendly.  She seemed overwhelmed by the number of persons checking into the hotel at that time.
+The lobby contained a small bar which although we did not use, would be convenient if needed.  This bar is next to the breakfast buffet/eating area that we used the morning of our check-out.  For breakfast, they had turkey bacon, scrambled eggs, pastries, breads, and biscuits.  Assorted juices, milks, and coffees were also available.
+The hotel had a pool and a small putting green, but we did not use either.
+Our room was spacious and had a lovely view of the city.  The room was clean and well-maintained.  There was ample space for storing luggage as well as feeling comfortable in the room with 4 people.  I liked that their was a desk behind the half wall that I could work without disturbing those sleeping in the bed.  Wi-Fi was fast and free.  
+Overall, we would rate this hotel as a 4.5, but given the value for what we received, we decided on...We recently stayed here one night en route from Austin to Omaha.  We arrived and were impressed with the hotel immediately.  The lobby was spacious and decorated in a modern decor.Check-in was a little slow as there was only one receptionist and there were 4 groups waiting to check-in.  Upon checking me into the hotel, the receptionist forgot to give me my ID back.  She was nice, but not very friendly.  She seemed overwhelmed by the number of persons checking into the hotel at that time.The lobby contained a small bar which although we did not use, would be convenient if needed.  This bar is next to the breakfast buffet/eating area that we used the morning of our check-out.  For breakfast, they had turkey bacon, scrambled eggs, pastries, breads, and biscuits.  Assorted juices, milks, and coffees were also available.The hotel had a pool and a small putting green, but we did not use either.Our room was spacious and had a lovely view of the city.  The room was clean and well-maintained.  There was ample space for storing luggage as well as feeling comfortable in the room with 4 people.  I liked that their was a desk behind the half wall that I could work without disturbing those sleeping in the bed.  Wi-Fi was fast and free.  Overall, we would rate this hotel as a 4.5, but given the value for what we received, we decided on five stars.  Great hotel for a business stay or family stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r387993788-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1073,9 +1596,6 @@
     <t>I liked this hotel. Very nice, brand new facility. Room is great, suite style, but not a separate room for the sofa, and share one TV for whole room. The bathroom door slides, so it does not completely cover the opening. A bit strange. Wall AC vent, so that is nice, although it creates a little draft on the headboard end. Overall, very nice.</t>
   </si>
   <si>
-    <t>denise70508</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r383323192-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1091,9 +1611,6 @@
     <t xml:space="preserve">The hotel was excellent! Very modern! My kids absolutely loved the putt putt golf area and the pool! Also the staff made my experience a very pleasant one! I will definitely recommend this hotel to anyone!  The only thing that would have made this better is if I was able to stay more than one night! </t>
   </si>
   <si>
-    <t>J A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r383239639-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1106,7 +1623,55 @@
     <t>I stayed here for several nights and was blown away by the look and feel of this place! And I am in the same business - development and operating hotels! Between Marriott and the local design team - they were spot on with what people want in a hotel! And once the team tweaks a few operational concerns (which were minor!) everything will be perfect! Those who read this review can rest assured that you to should expect a great experience! Thank you and best of luck to the entire staff!</t>
   </si>
   <si>
-    <t>Tom W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r382258827-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>382258827</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel and wonderful service</t>
+  </si>
+  <si>
+    <t>We stayed one night in room 501, top floor at the end of the hall, and I wish we had stayed here for a week! The room was beautiful and HUGE! 10 foot ceilings, a large couch and seating area, great beds, very nice bathroom...I could go on and on! This had to be one of the nicest hotels I've stayed in! Great check-in and check-out, wonderful selection on the continental breakfast and a beautiful and modern space from the eating area, elevators, etc. We will only stay at this hotel from here on out when we are in Ft. Worth!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jeff E, General Manager at SpringHill Suites Fort Worth Fossil Creek, responded to this reviewResponded June 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2016</t>
+  </si>
+  <si>
+    <t>We stayed one night in room 501, top floor at the end of the hall, and I wish we had stayed here for a week! The room was beautiful and HUGE! 10 foot ceilings, a large couch and seating area, great beds, very nice bathroom...I could go on and on! This had to be one of the nicest hotels I've stayed in! Great check-in and check-out, wonderful selection on the continental breakfast and a beautiful and modern space from the eating area, elevators, etc. We will only stay at this hotel from here on out when we are in Ft. Worth!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r379199812-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>379199812</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>Beautiful NEW Hotel in North Fort Worth</t>
+  </si>
+  <si>
+    <t>Rooms were spotless, as you would expect in a new hotel. Showers a bit quirky...don't hang onto the shower door after you open it or you'll break your hand! Very clean lines, a la IKEA for décor. Nice free breakfast included and USA Today. All HD 42 inch TV's in room. Complete blackout shades is a nice touch for sleeping in. Have stayed 3 times and never been able to get to the bar. It was not yet open when we stayed the first time and they said it was going to be open the second time, but it wasn't. Third time we just missed the hours it was to be open. No biggie. Very beautiful hotel in a quirky but good location. Quiet because no one knows it is there yet. Staff very nice but inexperienced, as one would expect in a brand new hotel. Management very responsive to email surveys and staff were helpful as much as they could be. Startup rates and rewards are a good enough deal not to pass this one up. Nice hotel! Oh, hot tub and pool area are very nice and they have a little outdoor putting green. Don't forget your putter!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Jeff E, General Manager at SpringHill Suites Fort Worth Fossil Creek, responded to this reviewResponded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Rooms were spotless, as you would expect in a new hotel. Showers a bit quirky...don't hang onto the shower door after you open it or you'll break your hand! Very clean lines, a la IKEA for décor. Nice free breakfast included and USA Today. All HD 42 inch TV's in room. Complete blackout shades is a nice touch for sleeping in. Have stayed 3 times and never been able to get to the bar. It was not yet open when we stayed the first time and they said it was going to be open the second time, but it wasn't. Third time we just missed the hours it was to be open. No biggie. Very beautiful hotel in a quirky but good location. Quiet because no one knows it is there yet. Staff very nice but inexperienced, as one would expect in a brand new hotel. Management very responsive to email surveys and staff were helpful as much as they could be. Startup rates and rewards are a good enough deal not to pass this one up. Nice hotel! Oh, hot tub and pool area are very nice and they have a little outdoor putting green. Don't forget your putter!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r378290761-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1124,9 +1689,6 @@
     <t>I am typically a Courtyard guy, but since this was a new SpringHill I though I would give it a try. I am very glad that I did! If this is the new look for SpringHill hotels... no more Courtyards for me. Excellent room, very comfortable, great layout and plenty of room. Excellent shower as well! The gym is very nice for a hotel of this level. Top of the line elliptical machine, TRX system, weights, kettle bells, sit up balls, clean, overall very nice and well equipped. The staff was excellent, friendly, helpful and professional. The breakfast was very nice and typical of a Springhill and included cracked eggs. I would like a little better selection for a dinner meal, but the Cobb salad I had was very nice. Overall it was an excellent stay and I will definitely stay here again on my next trip to DFW.MoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>Jeff E, General Manager at SpringHill Suites Fort Worth Fossil Creek, responded to this reviewResponded June 1, 2016</t>
   </si>
   <si>
@@ -1136,9 +1698,6 @@
     <t>I am typically a Courtyard guy, but since this was a new SpringHill I though I would give it a try. I am very glad that I did! If this is the new look for SpringHill hotels... no more Courtyards for me. Excellent room, very comfortable, great layout and plenty of room. Excellent shower as well! The gym is very nice for a hotel of this level. Top of the line elliptical machine, TRX system, weights, kettle bells, sit up balls, clean, overall very nice and well equipped. The staff was excellent, friendly, helpful and professional. The breakfast was very nice and typical of a Springhill and included cracked eggs. I would like a little better selection for a dinner meal, but the Cobb salad I had was very nice. Overall it was an excellent stay and I will definitely stay here again on my next trip to DFW.More</t>
   </si>
   <si>
-    <t>THOMAS L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r375119146-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1163,9 +1722,6 @@
     <t>Opened in April, 2016.  Very modern technology . . . you will love the showers!  The personnel have been highly trained and are very energetic and proud of this new property.  Extremely courteous.  So pleased with our stay here.More</t>
   </si>
   <si>
-    <t>WA509</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r374295325-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1188,6 +1744,30 @@
   </si>
   <si>
     <t>Awesome new property with a ton of high tech amenities (see: digital temperature gauge for the shower water). SpringHill Suites has definitely won me over for future stays, and I would feel lucky if I could stay at another property like this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9778909-r371860871-SpringHill_Suites_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>371860871</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>Excellent New Property....!</t>
+  </si>
+  <si>
+    <t>Excellent new property, super check in experience, fabulous rooms, great lobby, outdoor area for dining, putting green, etc.  I've stayed at many Marriott branded hotels and would have to say that these rooms, for the price, are right up there with the best 5* hotel......MoreShow less</t>
+  </si>
+  <si>
+    <t>Jeff E, General Manager at SpringHill Suites Fort Worth Fossil Creek, responded to this reviewResponded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Excellent new property, super check in experience, fabulous rooms, great lobby, outdoor area for dining, putting green, etc.  I've stayed at many Marriott branded hotels and would have to say that these rooms, for the price, are right up there with the best 5* hotel......More</t>
   </si>
 </sst>
 </file>
@@ -1692,56 +2272,50 @@
       <c r="A2" t="n">
         <v>64931</v>
       </c>
-      <c r="B2" t="n">
-        <v>177881</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="n">
         <v>4</v>
       </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
         <v>5</v>
@@ -1752,241 +2326,235 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64931</v>
       </c>
-      <c r="B3" t="n">
-        <v>177882</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64931</v>
       </c>
-      <c r="B4" t="n">
-        <v>177883</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64931</v>
       </c>
-      <c r="B5" t="n">
-        <v>1363</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s">
+        <v>73</v>
+      </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64931</v>
       </c>
-      <c r="B6" t="n">
-        <v>177884</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>80</v>
       </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>76</v>
-      </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2000,122 +2568,122 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64931</v>
       </c>
-      <c r="B7" t="n">
-        <v>177885</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>85</v>
       </c>
-      <c r="J7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64931</v>
       </c>
-      <c r="B8" t="n">
-        <v>177710</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
         <v>91</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>92</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>93</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" t="s">
         <v>94</v>
-      </c>
-      <c r="L8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>96</v>
-      </c>
-      <c r="O8" t="s">
-        <v>62</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
       </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
@@ -2128,51 +2696,51 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64931</v>
       </c>
-      <c r="B9" t="n">
-        <v>177886</v>
-      </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
         <v>99</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>100</v>
       </c>
-      <c r="J9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" t="s">
-        <v>102</v>
-      </c>
-      <c r="L9" t="s">
-        <v>103</v>
-      </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
@@ -2185,365 +2753,349 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64931</v>
       </c>
-      <c r="B10" t="n">
-        <v>177887</v>
-      </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
         <v>105</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>106</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>107</v>
       </c>
-      <c r="K10" t="s">
-        <v>108</v>
-      </c>
-      <c r="L10" t="s">
-        <v>109</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>96</v>
-      </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64931</v>
       </c>
-      <c r="B11" t="n">
-        <v>177888</v>
-      </c>
-      <c r="C11" t="s">
-        <v>110</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
         <v>111</v>
       </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>112</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>113</v>
       </c>
-      <c r="K11" t="s">
-        <v>114</v>
-      </c>
-      <c r="L11" t="s">
-        <v>115</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64931</v>
       </c>
-      <c r="B12" t="n">
-        <v>177889</v>
-      </c>
-      <c r="C12" t="s">
-        <v>116</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
         <v>117</v>
       </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>118</v>
       </c>
-      <c r="J12" t="s">
-        <v>113</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>119</v>
       </c>
-      <c r="L12" t="s">
-        <v>120</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>121</v>
-      </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64931</v>
       </c>
-      <c r="B13" t="n">
-        <v>177890</v>
-      </c>
-      <c r="C13" t="s">
-        <v>122</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
         <v>123</v>
       </c>
-      <c r="G13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>124</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>125</v>
       </c>
-      <c r="K13" t="s">
-        <v>126</v>
-      </c>
-      <c r="L13" t="s">
-        <v>127</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>121</v>
-      </c>
       <c r="O13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64931</v>
       </c>
-      <c r="B14" t="n">
-        <v>177891</v>
-      </c>
-      <c r="C14" t="s">
-        <v>128</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
         <v>129</v>
       </c>
-      <c r="G14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>130</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>131</v>
       </c>
-      <c r="K14" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14" t="s">
-        <v>133</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>134</v>
-      </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64931</v>
       </c>
-      <c r="B15" t="n">
-        <v>8437</v>
-      </c>
-      <c r="C15" t="s">
-        <v>135</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
         <v>136</v>
       </c>
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>137</v>
       </c>
-      <c r="J15" t="s">
-        <v>138</v>
-      </c>
-      <c r="K15" t="s">
-        <v>139</v>
-      </c>
-      <c r="L15" t="s">
-        <v>140</v>
-      </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O15" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2557,54 +3109,50 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64931</v>
       </c>
-      <c r="B16" t="n">
-        <v>177892</v>
-      </c>
-      <c r="C16" t="s">
-        <v>142</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2618,200 +3166,174 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64931</v>
       </c>
-      <c r="B17" t="n">
-        <v>177893</v>
-      </c>
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>155</v>
-      </c>
-      <c r="X17" t="s">
-        <v>156</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64931</v>
       </c>
-      <c r="B18" t="n">
-        <v>84290</v>
-      </c>
-      <c r="C18" t="s">
-        <v>158</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="O18" t="s">
-        <v>141</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64931</v>
       </c>
-      <c r="B19" t="n">
-        <v>2295</v>
-      </c>
-      <c r="C19" t="s">
-        <v>166</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="J19" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="K19" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2819,182 +3341,166 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64931</v>
       </c>
-      <c r="B20" t="n">
-        <v>4065</v>
-      </c>
-      <c r="C20" t="s">
-        <v>172</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="K20" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64931</v>
       </c>
-      <c r="B21" t="n">
-        <v>177894</v>
-      </c>
-      <c r="C21" t="s">
-        <v>179</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J21" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K21" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="L21" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
-      <c r="N21" t="s">
-        <v>178</v>
-      </c>
-      <c r="O21" t="s">
-        <v>62</v>
-      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64931</v>
       </c>
-      <c r="B22" t="n">
-        <v>177895</v>
-      </c>
-      <c r="C22" t="s">
-        <v>186</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="J22" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K22" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3008,120 +3514,120 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64931</v>
       </c>
-      <c r="B23" t="n">
-        <v>177896</v>
-      </c>
-      <c r="C23" t="s">
-        <v>191</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="J23" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64931</v>
       </c>
-      <c r="B24" t="n">
-        <v>177897</v>
-      </c>
-      <c r="C24" t="s">
-        <v>198</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="J24" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="K24" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
       </c>
-      <c r="Q24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
@@ -3134,194 +3640,176 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64931</v>
       </c>
-      <c r="B25" t="n">
-        <v>177898</v>
-      </c>
-      <c r="C25" t="s">
-        <v>205</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="J25" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
-      <c r="N25" t="s">
-        <v>197</v>
-      </c>
-      <c r="O25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64931</v>
       </c>
-      <c r="B26" t="n">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>212</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="J26" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="K26" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="O26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>64931</v>
       </c>
-      <c r="B27" t="n">
-        <v>177899</v>
-      </c>
-      <c r="C27" t="s">
-        <v>218</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="J27" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="K27" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3329,129 +3817,115 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>64931</v>
       </c>
-      <c r="B28" t="n">
-        <v>38581</v>
-      </c>
-      <c r="C28" t="s">
-        <v>225</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="J28" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K28" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>64931</v>
       </c>
-      <c r="B29" t="n">
-        <v>177900</v>
-      </c>
-      <c r="C29" t="s">
-        <v>231</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="J29" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="K29" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="L29" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="n">
         <v>5</v>
       </c>
-      <c r="R29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3463,121 +3937,107 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>64931</v>
       </c>
-      <c r="B30" t="n">
-        <v>177901</v>
-      </c>
-      <c r="C30" t="s">
-        <v>238</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="J30" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="K30" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="L30" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>64931</v>
       </c>
-      <c r="B31" t="n">
-        <v>177902</v>
-      </c>
-      <c r="C31" t="s">
-        <v>244</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="J31" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="K31" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="L31" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="O31" t="s">
-        <v>250</v>
+        <v>94</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3591,54 +4051,50 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>64931</v>
       </c>
-      <c r="B32" t="n">
-        <v>177903</v>
-      </c>
-      <c r="C32" t="s">
-        <v>251</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="J32" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="K32" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="O32" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3652,234 +4108,230 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>64931</v>
       </c>
-      <c r="B33" t="n">
-        <v>177904</v>
-      </c>
-      <c r="C33" t="s">
-        <v>258</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="J33" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="K33" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="L33" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>264</v>
+        <v>160</v>
       </c>
       <c r="O33" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>1</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>265</v>
-      </c>
-      <c r="X33" t="s">
-        <v>266</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>64931</v>
       </c>
-      <c r="B34" t="n">
-        <v>11711</v>
-      </c>
-      <c r="C34" t="s">
-        <v>268</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="J34" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="K34" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="L34" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>241</v>
+      </c>
+      <c r="X34" t="s">
+        <v>242</v>
+      </c>
       <c r="Y34" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>64931</v>
       </c>
-      <c r="B35" t="n">
-        <v>177905</v>
-      </c>
-      <c r="C35" t="s">
-        <v>274</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="J35" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="K35" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="L35" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O35" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>249</v>
+      </c>
+      <c r="X35" t="s">
+        <v>250</v>
+      </c>
       <c r="Y35" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>64931</v>
       </c>
-      <c r="B36" t="n">
-        <v>177906</v>
-      </c>
-      <c r="C36" t="s">
-        <v>280</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="J36" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="K36" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="L36" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -3888,59 +4340,59 @@
         <v>257</v>
       </c>
       <c r="O36" t="s">
-        <v>250</v>
-      </c>
-      <c r="P36" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>64931</v>
       </c>
-      <c r="B37" t="n">
-        <v>177907</v>
-      </c>
-      <c r="C37" t="s">
-        <v>286</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="J37" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="K37" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="L37" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
@@ -3949,68 +4401,70 @@
         <v>257</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
-      </c>
-      <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>64931</v>
       </c>
-      <c r="B38" t="n">
-        <v>177908</v>
-      </c>
-      <c r="C38" t="s">
-        <v>292</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="J38" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="K38" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="L38" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="O38" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4024,116 +4478,108 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>64931</v>
       </c>
-      <c r="B39" t="n">
-        <v>18686</v>
-      </c>
-      <c r="C39" t="s">
-        <v>299</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="J39" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="K39" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="L39" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="O39" t="s">
-        <v>62</v>
+        <v>276</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>64931</v>
       </c>
-      <c r="B40" t="n">
-        <v>38423</v>
-      </c>
-      <c r="C40" t="s">
-        <v>306</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="J40" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="K40" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="L40" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
-      </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>275</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
@@ -4146,61 +4592,59 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>64931</v>
       </c>
-      <c r="B41" t="n">
-        <v>177909</v>
-      </c>
-      <c r="C41" t="s">
-        <v>312</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="J41" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="K41" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="L41" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="O41" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
       <c r="R41" t="n">
-        <v>3</v>
-      </c>
-      <c r="S41" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
         <v>5</v>
@@ -4211,132 +4655,116 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>64931</v>
       </c>
-      <c r="B42" t="n">
-        <v>177910</v>
-      </c>
-      <c r="C42" t="s">
-        <v>320</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="J42" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="K42" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="L42" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="O42" t="s">
-        <v>62</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>3</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>327</v>
-      </c>
-      <c r="X42" t="s">
-        <v>328</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>64931</v>
       </c>
-      <c r="B43" t="n">
-        <v>177911</v>
-      </c>
-      <c r="C43" t="s">
-        <v>330</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="J43" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="K43" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="L43" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="O43" t="s">
-        <v>62</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>5</v>
@@ -4347,111 +4775,113 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>64931</v>
       </c>
-      <c r="B44" t="n">
-        <v>67863</v>
-      </c>
-      <c r="C44" t="s">
-        <v>337</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="J44" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K44" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="L44" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
-      </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>297</v>
+      </c>
+      <c r="O44" t="s">
+        <v>94</v>
+      </c>
       <c r="P44" t="s"/>
-      <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>64931</v>
       </c>
-      <c r="B45" t="n">
-        <v>177912</v>
-      </c>
-      <c r="C45" t="s">
-        <v>343</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="J45" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="K45" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="L45" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="O45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4465,63 +4895,57 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>64931</v>
       </c>
-      <c r="B46" t="n">
-        <v>58729</v>
-      </c>
-      <c r="C46" t="s">
-        <v>349</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="J46" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="K46" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="L46" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="O46" t="s">
-        <v>62</v>
-      </c>
-      <c r="P46" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
       <c r="Q46" t="s"/>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>5</v>
@@ -4532,60 +4956,58 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>64931</v>
       </c>
-      <c r="B47" t="n">
-        <v>14423</v>
-      </c>
-      <c r="C47" t="s">
-        <v>354</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="J47" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="K47" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="L47" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="O47" t="s">
-        <v>54</v>
-      </c>
-      <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
@@ -4594,154 +5016,2481 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
-        <v>361</v>
-      </c>
-      <c r="X47" t="s">
-        <v>362</v>
-      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>64931</v>
       </c>
-      <c r="B48" t="n">
-        <v>177913</v>
-      </c>
-      <c r="C48" t="s">
-        <v>364</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="J48" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="K48" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="L48" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="O48" t="s">
-        <v>250</v>
+        <v>53</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
       </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q48" t="s"/>
       <c r="R48" t="s"/>
-      <c r="S48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>370</v>
-      </c>
-      <c r="X48" t="s">
-        <v>371</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>64931</v>
       </c>
-      <c r="B49" t="n">
-        <v>177914</v>
-      </c>
-      <c r="C49" t="s">
-        <v>373</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="J49" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
       <c r="K49" t="s">
-        <v>377</v>
+        <v>78</v>
       </c>
       <c r="L49" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="O49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
       <c r="R49" t="s"/>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s">
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>331</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>332</v>
+      </c>
+      <c r="J50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K50" t="s">
+        <v>334</v>
+      </c>
+      <c r="L50" t="s">
+        <v>335</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>314</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>336</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>337</v>
+      </c>
+      <c r="J51" t="s">
+        <v>338</v>
+      </c>
+      <c r="K51" t="s">
+        <v>339</v>
+      </c>
+      <c r="L51" t="s">
+        <v>340</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>341</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>342</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>343</v>
+      </c>
+      <c r="J52" t="s">
+        <v>344</v>
+      </c>
+      <c r="K52" t="s">
+        <v>345</v>
+      </c>
+      <c r="L52" t="s">
+        <v>346</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>341</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>347</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>348</v>
+      </c>
+      <c r="J53" t="s">
+        <v>349</v>
+      </c>
+      <c r="K53" t="s">
+        <v>350</v>
+      </c>
+      <c r="L53" t="s">
+        <v>351</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>341</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>353</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>354</v>
+      </c>
+      <c r="J54" t="s">
+        <v>355</v>
+      </c>
+      <c r="K54" t="s">
+        <v>356</v>
+      </c>
+      <c r="L54" t="s">
+        <v>357</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>341</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>358</v>
+      </c>
+      <c r="X54" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>361</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>362</v>
+      </c>
+      <c r="J55" t="s">
+        <v>363</v>
+      </c>
+      <c r="K55" t="s">
+        <v>364</v>
+      </c>
+      <c r="L55" t="s">
+        <v>365</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>366</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>367</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>368</v>
+      </c>
+      <c r="J56" t="s">
+        <v>369</v>
+      </c>
+      <c r="K56" t="s">
+        <v>370</v>
+      </c>
+      <c r="L56" t="s">
+        <v>371</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>366</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>372</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>373</v>
+      </c>
+      <c r="J57" t="s">
+        <v>374</v>
+      </c>
+      <c r="K57" t="s">
+        <v>375</v>
+      </c>
+      <c r="L57" t="s">
+        <v>376</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>366</v>
+      </c>
+      <c r="O57" t="s">
+        <v>276</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>377</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>378</v>
+      </c>
+      <c r="J58" t="s">
         <v>379</v>
       </c>
-      <c r="X49" t="s">
+      <c r="K58" t="s">
         <v>380</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="L58" t="s">
         <v>381</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>382</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>383</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>384</v>
+      </c>
+      <c r="J59" t="s">
+        <v>385</v>
+      </c>
+      <c r="K59" t="s">
+        <v>386</v>
+      </c>
+      <c r="L59" t="s">
+        <v>387</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>382</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>388</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>389</v>
+      </c>
+      <c r="J60" t="s">
+        <v>390</v>
+      </c>
+      <c r="K60" t="s">
+        <v>391</v>
+      </c>
+      <c r="L60" t="s">
+        <v>392</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>393</v>
+      </c>
+      <c r="O60" t="s">
+        <v>94</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>394</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>395</v>
+      </c>
+      <c r="J61" t="s">
+        <v>396</v>
+      </c>
+      <c r="K61" t="s">
+        <v>397</v>
+      </c>
+      <c r="L61" t="s">
+        <v>398</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>382</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>399</v>
+      </c>
+      <c r="X61" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>402</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>403</v>
+      </c>
+      <c r="J62" t="s">
+        <v>404</v>
+      </c>
+      <c r="K62" t="s">
+        <v>405</v>
+      </c>
+      <c r="L62" t="s">
+        <v>406</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>382</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>407</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>408</v>
+      </c>
+      <c r="J63" t="s">
+        <v>409</v>
+      </c>
+      <c r="K63" t="s">
+        <v>410</v>
+      </c>
+      <c r="L63" t="s">
+        <v>411</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>382</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>412</v>
+      </c>
+      <c r="X63" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>415</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>416</v>
+      </c>
+      <c r="J64" t="s">
+        <v>417</v>
+      </c>
+      <c r="K64" t="s">
+        <v>418</v>
+      </c>
+      <c r="L64" t="s">
+        <v>419</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>393</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>421</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>422</v>
+      </c>
+      <c r="J65" t="s">
+        <v>423</v>
+      </c>
+      <c r="K65" t="s">
+        <v>424</v>
+      </c>
+      <c r="L65" t="s">
+        <v>425</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>393</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>426</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>427</v>
+      </c>
+      <c r="J66" t="s">
+        <v>428</v>
+      </c>
+      <c r="K66" t="s">
+        <v>429</v>
+      </c>
+      <c r="L66" t="s">
+        <v>430</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>393</v>
+      </c>
+      <c r="O66" t="s">
+        <v>276</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>431</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>432</v>
+      </c>
+      <c r="J67" t="s">
+        <v>433</v>
+      </c>
+      <c r="K67" t="s">
+        <v>434</v>
+      </c>
+      <c r="L67" t="s">
+        <v>435</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>393</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>436</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>437</v>
+      </c>
+      <c r="J68" t="s">
+        <v>438</v>
+      </c>
+      <c r="K68" t="s">
+        <v>439</v>
+      </c>
+      <c r="L68" t="s">
+        <v>440</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>441</v>
+      </c>
+      <c r="O68" t="s">
+        <v>276</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>442</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>443</v>
+      </c>
+      <c r="J69" t="s">
+        <v>444</v>
+      </c>
+      <c r="K69" t="s">
+        <v>445</v>
+      </c>
+      <c r="L69" t="s">
+        <v>446</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>393</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>447</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>448</v>
+      </c>
+      <c r="J70" t="s">
+        <v>449</v>
+      </c>
+      <c r="K70" t="s">
+        <v>450</v>
+      </c>
+      <c r="L70" t="s">
+        <v>451</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>441</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>452</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>453</v>
+      </c>
+      <c r="J71" t="s">
+        <v>454</v>
+      </c>
+      <c r="K71" t="s">
+        <v>455</v>
+      </c>
+      <c r="L71" t="s">
+        <v>456</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>441</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>458</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>459</v>
+      </c>
+      <c r="J72" t="s">
+        <v>460</v>
+      </c>
+      <c r="K72" t="s">
+        <v>461</v>
+      </c>
+      <c r="L72" t="s">
+        <v>462</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>463</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>464</v>
+      </c>
+      <c r="J73" t="s">
+        <v>465</v>
+      </c>
+      <c r="K73" t="s">
+        <v>78</v>
+      </c>
+      <c r="L73" t="s">
+        <v>466</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>467</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>468</v>
+      </c>
+      <c r="J74" t="s">
+        <v>469</v>
+      </c>
+      <c r="K74" t="s">
+        <v>470</v>
+      </c>
+      <c r="L74" t="s">
+        <v>471</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>472</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>473</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>474</v>
+      </c>
+      <c r="J75" t="s">
+        <v>475</v>
+      </c>
+      <c r="K75" t="s">
+        <v>476</v>
+      </c>
+      <c r="L75" t="s">
+        <v>477</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>478</v>
+      </c>
+      <c r="O75" t="s">
+        <v>94</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>480</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>481</v>
+      </c>
+      <c r="J76" t="s">
+        <v>482</v>
+      </c>
+      <c r="K76" t="s">
+        <v>483</v>
+      </c>
+      <c r="L76" t="s">
+        <v>484</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>472</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>485</v>
+      </c>
+      <c r="X76" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>488</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>489</v>
+      </c>
+      <c r="J77" t="s">
+        <v>490</v>
+      </c>
+      <c r="K77" t="s">
+        <v>491</v>
+      </c>
+      <c r="L77" t="s">
+        <v>492</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>493</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>494</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>495</v>
+      </c>
+      <c r="J78" t="s">
+        <v>496</v>
+      </c>
+      <c r="K78" t="s">
+        <v>497</v>
+      </c>
+      <c r="L78" t="s">
+        <v>498</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>472</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>499</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>500</v>
+      </c>
+      <c r="J79" t="s">
+        <v>501</v>
+      </c>
+      <c r="K79" t="s">
+        <v>502</v>
+      </c>
+      <c r="L79" t="s">
+        <v>503</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>493</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>505</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>506</v>
+      </c>
+      <c r="J80" t="s">
+        <v>507</v>
+      </c>
+      <c r="K80" t="s">
+        <v>508</v>
+      </c>
+      <c r="L80" t="s">
+        <v>509</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>510</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>511</v>
+      </c>
+      <c r="J81" t="s">
+        <v>512</v>
+      </c>
+      <c r="K81" t="s">
+        <v>513</v>
+      </c>
+      <c r="L81" t="s">
+        <v>514</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>493</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>515</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>516</v>
+      </c>
+      <c r="J82" t="s">
+        <v>512</v>
+      </c>
+      <c r="K82" t="s">
+        <v>517</v>
+      </c>
+      <c r="L82" t="s">
+        <v>518</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>493</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>519</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>520</v>
+      </c>
+      <c r="J83" t="s">
+        <v>521</v>
+      </c>
+      <c r="K83" t="s">
+        <v>522</v>
+      </c>
+      <c r="L83" t="s">
+        <v>523</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>493</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>524</v>
+      </c>
+      <c r="X83" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>527</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>528</v>
+      </c>
+      <c r="J84" t="s">
+        <v>529</v>
+      </c>
+      <c r="K84" t="s">
+        <v>530</v>
+      </c>
+      <c r="L84" t="s">
+        <v>531</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>532</v>
+      </c>
+      <c r="O84" t="s">
+        <v>94</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>533</v>
+      </c>
+      <c r="X84" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>536</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>537</v>
+      </c>
+      <c r="J85" t="s">
+        <v>538</v>
+      </c>
+      <c r="K85" t="s">
+        <v>539</v>
+      </c>
+      <c r="L85" t="s">
+        <v>540</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>532</v>
+      </c>
+      <c r="O85" t="s">
+        <v>60</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>541</v>
+      </c>
+      <c r="X85" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>544</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>545</v>
+      </c>
+      <c r="J86" t="s">
+        <v>546</v>
+      </c>
+      <c r="K86" t="s">
+        <v>547</v>
+      </c>
+      <c r="L86" t="s">
+        <v>548</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>532</v>
+      </c>
+      <c r="O86" t="s">
+        <v>276</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>549</v>
+      </c>
+      <c r="X86" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>552</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>553</v>
+      </c>
+      <c r="J87" t="s">
+        <v>554</v>
+      </c>
+      <c r="K87" t="s">
+        <v>555</v>
+      </c>
+      <c r="L87" t="s">
+        <v>556</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>532</v>
+      </c>
+      <c r="O87" t="s">
+        <v>60</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>557</v>
+      </c>
+      <c r="X87" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>64931</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>560</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>561</v>
+      </c>
+      <c r="J88" t="s">
+        <v>562</v>
+      </c>
+      <c r="K88" t="s">
+        <v>563</v>
+      </c>
+      <c r="L88" t="s">
+        <v>564</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>532</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>565</v>
+      </c>
+      <c r="X88" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
